--- a/Project/NewMedchal.xlsx
+++ b/Project/NewMedchal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKSPACE\CAP460\CAPSTONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\WORKSPACE\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C52C16-5B9B-473C-9EC6-22D460CD223C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496E1867-3F39-4686-B44E-5C2C802EB52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -120,7 +120,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1316" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1325" sqref="D1325"/>
+    <sheetView tabSelected="1" topLeftCell="A985" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1128" sqref="D1128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32704,28 +32704,28 @@
         <v>9</v>
       </c>
       <c r="B1120" s="4">
-        <v>44682</v>
+        <v>44621</v>
       </c>
       <c r="C1120">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="D1120">
-        <v>24.6</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E1120">
-        <v>40.6</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="F1120">
-        <v>22.1</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G1120">
-        <v>72.400000000000006</v>
+        <v>68.8</v>
       </c>
       <c r="H1120">
         <v>0</v>
       </c>
       <c r="I1120">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="1121" spans="1:9" x14ac:dyDescent="0.25">
@@ -32733,28 +32733,28 @@
         <v>9</v>
       </c>
       <c r="B1121" s="4">
-        <v>44683</v>
+        <v>44622</v>
       </c>
       <c r="C1121">
         <v>0</v>
       </c>
       <c r="D1121">
-        <v>29.6</v>
+        <v>19.8</v>
       </c>
       <c r="E1121">
-        <v>40</v>
+        <v>33.4</v>
       </c>
       <c r="F1121">
-        <v>15.7</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="G1121">
-        <v>55.7</v>
+        <v>59.1</v>
       </c>
       <c r="H1121">
         <v>0</v>
       </c>
       <c r="I1121">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="1122" spans="1:9" x14ac:dyDescent="0.25">
@@ -32762,28 +32762,28 @@
         <v>9</v>
       </c>
       <c r="B1122" s="4">
-        <v>44684</v>
+        <v>44623</v>
       </c>
       <c r="C1122">
         <v>0</v>
       </c>
       <c r="D1122">
-        <v>28.4</v>
+        <v>21</v>
       </c>
       <c r="E1122">
-        <v>39.9</v>
+        <v>33.1</v>
       </c>
       <c r="F1122">
-        <v>16.7</v>
+        <v>22.4</v>
       </c>
       <c r="G1122">
-        <v>71.099999999999994</v>
+        <v>60.9</v>
       </c>
       <c r="H1122">
         <v>0</v>
       </c>
       <c r="I1122">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="1123" spans="1:9" x14ac:dyDescent="0.25">
@@ -32791,28 +32791,28 @@
         <v>9</v>
       </c>
       <c r="B1123" s="4">
-        <v>44685</v>
+        <v>44624</v>
       </c>
       <c r="C1123">
-        <v>35.1</v>
+        <v>0</v>
       </c>
       <c r="D1123">
-        <v>20.100000000000001</v>
+        <v>20.8</v>
       </c>
       <c r="E1123">
-        <v>39.1</v>
+        <v>33</v>
       </c>
       <c r="F1123">
-        <v>31.1</v>
+        <v>23.6</v>
       </c>
       <c r="G1123">
-        <v>93.5</v>
+        <v>63.3</v>
       </c>
       <c r="H1123">
         <v>0</v>
       </c>
       <c r="I1123">
-        <v>9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1124" spans="1:9" x14ac:dyDescent="0.25">
@@ -32820,28 +32820,28 @@
         <v>9</v>
       </c>
       <c r="B1124" s="4">
-        <v>44686</v>
+        <v>44625</v>
       </c>
       <c r="C1124">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D1124">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="E1124">
-        <v>33.799999999999997</v>
+        <v>33</v>
       </c>
       <c r="F1124">
-        <v>34.6</v>
+        <v>24.6</v>
       </c>
       <c r="G1124">
-        <v>94.3</v>
+        <v>65.8</v>
       </c>
       <c r="H1124">
         <v>0</v>
       </c>
       <c r="I1124">
-        <v>1.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1125" spans="1:9" x14ac:dyDescent="0.25">
@@ -32849,28 +32849,28 @@
         <v>9</v>
       </c>
       <c r="B1125" s="4">
-        <v>44687</v>
+        <v>44626</v>
       </c>
       <c r="C1125">
         <v>0</v>
       </c>
       <c r="D1125">
-        <v>25.8</v>
+        <v>21.2</v>
       </c>
       <c r="E1125">
-        <v>36.5</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F1125">
-        <v>28</v>
+        <v>26.5</v>
       </c>
       <c r="G1125">
-        <v>82.2</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="H1125">
         <v>0</v>
       </c>
       <c r="I1125">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="1126" spans="1:9" x14ac:dyDescent="0.25">
@@ -32878,28 +32878,28 @@
         <v>9</v>
       </c>
       <c r="B1126" s="4">
-        <v>44688</v>
+        <v>44627</v>
       </c>
       <c r="C1126">
         <v>0</v>
       </c>
       <c r="D1126">
-        <v>27.3</v>
+        <v>22.1</v>
       </c>
       <c r="E1126">
-        <v>39.200000000000003</v>
+        <v>32.9</v>
       </c>
       <c r="F1126">
-        <v>16.7</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="G1126">
-        <v>61.9</v>
+        <v>70.5</v>
       </c>
       <c r="H1126">
         <v>0</v>
       </c>
       <c r="I1126">
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="1127" spans="1:9" x14ac:dyDescent="0.25">
@@ -32907,28 +32907,28 @@
         <v>9</v>
       </c>
       <c r="B1127" s="4">
-        <v>44689</v>
+        <v>44628</v>
       </c>
       <c r="C1127">
         <v>0</v>
       </c>
       <c r="D1127">
-        <v>29.8</v>
+        <v>21.8</v>
       </c>
       <c r="E1127">
-        <v>39.1</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="F1127">
-        <v>21.1</v>
+        <v>33.4</v>
       </c>
       <c r="G1127">
-        <v>60.6</v>
+        <v>63.5</v>
       </c>
       <c r="H1127">
         <v>0</v>
       </c>
       <c r="I1127">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="1128" spans="1:9" x14ac:dyDescent="0.25">
@@ -32936,28 +32936,28 @@
         <v>9</v>
       </c>
       <c r="B1128" s="4">
-        <v>44690</v>
+        <v>44629</v>
       </c>
       <c r="C1128">
         <v>0</v>
       </c>
       <c r="D1128">
-        <v>26.8</v>
+        <v>21.1</v>
       </c>
       <c r="E1128">
-        <v>37.6</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="F1128">
-        <v>26.4</v>
+        <v>30.8</v>
       </c>
       <c r="G1128">
-        <v>73</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="H1128">
         <v>0</v>
       </c>
       <c r="I1128">
-        <v>3.6</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="1129" spans="1:9" x14ac:dyDescent="0.25">
@@ -32965,28 +32965,28 @@
         <v>9</v>
       </c>
       <c r="B1129" s="4">
-        <v>44691</v>
+        <v>44630</v>
       </c>
       <c r="C1129">
         <v>0</v>
       </c>
       <c r="D1129">
-        <v>27.4</v>
+        <v>22.4</v>
       </c>
       <c r="E1129">
-        <v>39.1</v>
+        <v>34.1</v>
       </c>
       <c r="F1129">
-        <v>17.600000000000001</v>
+        <v>24.4</v>
       </c>
       <c r="G1129">
-        <v>73.400000000000006</v>
+        <v>63.2</v>
       </c>
       <c r="H1129">
         <v>0</v>
       </c>
       <c r="I1129">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="1130" spans="1:9" x14ac:dyDescent="0.25">
@@ -32994,28 +32994,28 @@
         <v>9</v>
       </c>
       <c r="B1130" s="4">
-        <v>44692</v>
+        <v>44631</v>
       </c>
       <c r="C1130">
         <v>0</v>
       </c>
       <c r="D1130">
-        <v>26.4</v>
+        <v>22.9</v>
       </c>
       <c r="E1130">
-        <v>37.5</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F1130">
-        <v>22.7</v>
+        <v>29.8</v>
       </c>
       <c r="G1130">
-        <v>74.599999999999994</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="H1130">
         <v>0</v>
       </c>
       <c r="I1130">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="1131" spans="1:9" x14ac:dyDescent="0.25">
@@ -33023,28 +33023,28 @@
         <v>9</v>
       </c>
       <c r="B1131" s="4">
-        <v>44693</v>
+        <v>44632</v>
       </c>
       <c r="C1131">
         <v>0</v>
       </c>
       <c r="D1131">
-        <v>26.9</v>
+        <v>23.1</v>
       </c>
       <c r="E1131">
-        <v>31.9</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="F1131">
-        <v>51.4</v>
+        <v>28.8</v>
       </c>
       <c r="G1131">
-        <v>78.400000000000006</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="H1131">
         <v>0</v>
       </c>
       <c r="I1131">
-        <v>2.6</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="1132" spans="1:9" x14ac:dyDescent="0.25">
@@ -33052,28 +33052,28 @@
         <v>9</v>
       </c>
       <c r="B1132" s="4">
-        <v>44694</v>
+        <v>44633</v>
       </c>
       <c r="C1132">
         <v>0</v>
       </c>
       <c r="D1132">
-        <v>26</v>
+        <v>22.5</v>
       </c>
       <c r="E1132">
-        <v>32.799999999999997</v>
+        <v>32.9</v>
       </c>
       <c r="F1132">
-        <v>49.8</v>
+        <v>32.5</v>
       </c>
       <c r="G1132">
-        <v>84.8</v>
+        <v>68.5</v>
       </c>
       <c r="H1132">
         <v>0</v>
       </c>
       <c r="I1132">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="1133" spans="1:9" x14ac:dyDescent="0.25">
@@ -33081,28 +33081,28 @@
         <v>9</v>
       </c>
       <c r="B1133" s="4">
-        <v>44695</v>
+        <v>44634</v>
       </c>
       <c r="C1133">
         <v>0</v>
       </c>
       <c r="D1133">
-        <v>27.7</v>
+        <v>21.4</v>
       </c>
       <c r="E1133">
-        <v>37.700000000000003</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="F1133">
-        <v>34.1</v>
+        <v>27.9</v>
       </c>
       <c r="G1133">
-        <v>71.900000000000006</v>
+        <v>57.7</v>
       </c>
       <c r="H1133">
         <v>0</v>
       </c>
       <c r="I1133">
-        <v>2.2000000000000002</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="1134" spans="1:9" x14ac:dyDescent="0.25">
@@ -33110,28 +33110,28 @@
         <v>9</v>
       </c>
       <c r="B1134" s="4">
-        <v>44696</v>
+        <v>44635</v>
       </c>
       <c r="C1134">
         <v>0</v>
       </c>
       <c r="D1134">
-        <v>26.2</v>
+        <v>20.3</v>
       </c>
       <c r="E1134">
-        <v>39.9</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F1134">
-        <v>28.4</v>
+        <v>14</v>
       </c>
       <c r="G1134">
-        <v>76.7</v>
+        <v>54.6</v>
       </c>
       <c r="H1134">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I1134">
-        <v>13.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="1135" spans="1:9" x14ac:dyDescent="0.25">
@@ -33139,28 +33139,28 @@
         <v>9</v>
       </c>
       <c r="B1135" s="4">
-        <v>44697</v>
+        <v>44636</v>
       </c>
       <c r="C1135">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="D1135">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="E1135">
-        <v>38.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="F1135">
-        <v>36.9</v>
+        <v>16.7</v>
       </c>
       <c r="G1135">
-        <v>100</v>
+        <v>51.8</v>
       </c>
       <c r="H1135">
         <v>0</v>
       </c>
       <c r="I1135">
-        <v>19.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="1136" spans="1:9" x14ac:dyDescent="0.25">
@@ -33168,28 +33168,28 @@
         <v>9</v>
       </c>
       <c r="B1136" s="4">
-        <v>44698</v>
+        <v>44637</v>
       </c>
       <c r="C1136">
         <v>0</v>
       </c>
       <c r="D1136">
-        <v>26.9</v>
+        <v>22.9</v>
       </c>
       <c r="E1136">
-        <v>36.200000000000003</v>
+        <v>36.9</v>
       </c>
       <c r="F1136">
-        <v>53.4</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G1136">
-        <v>91.2</v>
+        <v>51.3</v>
       </c>
       <c r="H1136">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="I1136">
-        <v>14.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1137" spans="1:9" x14ac:dyDescent="0.25">
@@ -33197,28 +33197,28 @@
         <v>9</v>
       </c>
       <c r="B1137" s="4">
-        <v>44699</v>
+        <v>44638</v>
       </c>
       <c r="C1137">
         <v>0</v>
       </c>
       <c r="D1137">
-        <v>27</v>
+        <v>24.1</v>
       </c>
       <c r="E1137">
-        <v>36.5</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="F1137">
-        <v>54.8</v>
+        <v>12.8</v>
       </c>
       <c r="G1137">
-        <v>86.7</v>
+        <v>47.4</v>
       </c>
       <c r="H1137">
         <v>0</v>
       </c>
       <c r="I1137">
-        <v>10.199999999999999</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="1138" spans="1:9" x14ac:dyDescent="0.25">
@@ -33226,28 +33226,28 @@
         <v>9</v>
       </c>
       <c r="B1138" s="4">
-        <v>44700</v>
+        <v>44639</v>
       </c>
       <c r="C1138">
         <v>0</v>
       </c>
       <c r="D1138">
-        <v>25.4</v>
+        <v>22.4</v>
       </c>
       <c r="E1138">
-        <v>35.1</v>
+        <v>37.6</v>
       </c>
       <c r="F1138">
-        <v>60</v>
+        <v>18.8</v>
       </c>
       <c r="G1138">
-        <v>95.2</v>
+        <v>82.4</v>
       </c>
       <c r="H1138">
         <v>0.1</v>
       </c>
       <c r="I1138">
-        <v>16</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="1139" spans="1:9" x14ac:dyDescent="0.25">
@@ -33255,28 +33255,28 @@
         <v>9</v>
       </c>
       <c r="B1139" s="4">
-        <v>44701</v>
+        <v>44640</v>
       </c>
       <c r="C1139">
         <v>0</v>
       </c>
       <c r="D1139">
-        <v>26.1</v>
+        <v>25.5</v>
       </c>
       <c r="E1139">
-        <v>32.700000000000003</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="F1139">
-        <v>67.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="G1139">
-        <v>95.7</v>
+        <v>72</v>
       </c>
       <c r="H1139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1139">
-        <v>15.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="1140" spans="1:9" x14ac:dyDescent="0.25">
@@ -33284,28 +33284,28 @@
         <v>9</v>
       </c>
       <c r="B1140" s="4">
-        <v>44702</v>
+        <v>44641</v>
       </c>
       <c r="C1140">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D1140">
-        <v>23.1</v>
+        <v>25</v>
       </c>
       <c r="E1140">
-        <v>36.299999999999997</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="F1140">
-        <v>54.4</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="G1140">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H1140">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I1140">
-        <v>12.3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="1141" spans="1:9" x14ac:dyDescent="0.25">
@@ -33313,28 +33313,28 @@
         <v>9</v>
       </c>
       <c r="B1141" s="4">
-        <v>44703</v>
+        <v>44642</v>
       </c>
       <c r="C1141">
         <v>0</v>
       </c>
       <c r="D1141">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="E1141">
-        <v>32.4</v>
+        <v>35.9</v>
       </c>
       <c r="F1141">
-        <v>60.8</v>
+        <v>28.2</v>
       </c>
       <c r="G1141">
-        <v>75.2</v>
+        <v>88.4</v>
       </c>
       <c r="H1141">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="I1141">
-        <v>14.9</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="1142" spans="1:9" x14ac:dyDescent="0.25">
@@ -33342,28 +33342,28 @@
         <v>9</v>
       </c>
       <c r="B1142" s="4">
-        <v>44704</v>
+        <v>44643</v>
       </c>
       <c r="C1142">
         <v>0</v>
       </c>
       <c r="D1142">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="E1142">
-        <v>35.1</v>
+        <v>35.6</v>
       </c>
       <c r="F1142">
-        <v>43.5</v>
+        <v>33.9</v>
       </c>
       <c r="G1142">
-        <v>85.5</v>
+        <v>68.3</v>
       </c>
       <c r="H1142">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="I1142">
-        <v>14.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="1143" spans="1:9" x14ac:dyDescent="0.25">
@@ -33371,28 +33371,28 @@
         <v>9</v>
       </c>
       <c r="B1143" s="4">
-        <v>44705</v>
+        <v>44644</v>
       </c>
       <c r="C1143">
         <v>0</v>
       </c>
       <c r="D1143">
-        <v>26.3</v>
+        <v>24.9</v>
       </c>
       <c r="E1143">
-        <v>36.299999999999997</v>
+        <v>36.6</v>
       </c>
       <c r="F1143">
-        <v>37.700000000000003</v>
+        <v>28.6</v>
       </c>
       <c r="G1143">
-        <v>78.5</v>
+        <v>86.7</v>
       </c>
       <c r="H1143">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="I1143">
-        <v>14.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1144" spans="1:9" x14ac:dyDescent="0.25">
@@ -33400,28 +33400,28 @@
         <v>9</v>
       </c>
       <c r="B1144" s="4">
-        <v>44706</v>
+        <v>44645</v>
       </c>
       <c r="C1144">
         <v>0</v>
       </c>
       <c r="D1144">
-        <v>27.9</v>
+        <v>23.8</v>
       </c>
       <c r="E1144">
-        <v>38.799999999999997</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="F1144">
-        <v>37.4</v>
+        <v>28.3</v>
       </c>
       <c r="G1144">
-        <v>64.5</v>
+        <v>89.8</v>
       </c>
       <c r="H1144">
-        <v>2.2000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="I1144">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1145" spans="1:9" x14ac:dyDescent="0.25">
@@ -33429,28 +33429,28 @@
         <v>9</v>
       </c>
       <c r="B1145" s="4">
-        <v>44707</v>
+        <v>44646</v>
       </c>
       <c r="C1145">
         <v>0</v>
       </c>
       <c r="D1145">
-        <v>25.2</v>
+        <v>23.7</v>
       </c>
       <c r="E1145">
-        <v>37.1</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="F1145">
-        <v>30.1</v>
+        <v>31.3</v>
       </c>
       <c r="G1145">
-        <v>73.2</v>
+        <v>86.3</v>
       </c>
       <c r="H1145">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I1145">
-        <v>2.2999999999999998</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1146" spans="1:9" x14ac:dyDescent="0.25">
@@ -33458,28 +33458,28 @@
         <v>9</v>
       </c>
       <c r="B1146" s="4">
-        <v>44708</v>
+        <v>44647</v>
       </c>
       <c r="C1146">
         <v>0</v>
       </c>
       <c r="D1146">
-        <v>27.1</v>
+        <v>24.4</v>
       </c>
       <c r="E1146">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="F1146">
-        <v>31.9</v>
+        <v>26.1</v>
       </c>
       <c r="G1146">
-        <v>62.3</v>
+        <v>81.3</v>
       </c>
       <c r="H1146">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I1146">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="1147" spans="1:9" x14ac:dyDescent="0.25">
@@ -33487,28 +33487,28 @@
         <v>9</v>
       </c>
       <c r="B1147" s="4">
-        <v>44709</v>
+        <v>44648</v>
       </c>
       <c r="C1147">
         <v>0</v>
       </c>
       <c r="D1147">
-        <v>26.9</v>
+        <v>24.4</v>
       </c>
       <c r="E1147">
-        <v>37.700000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="F1147">
-        <v>25.7</v>
+        <v>33.6</v>
       </c>
       <c r="G1147">
-        <v>64.5</v>
+        <v>78.2</v>
       </c>
       <c r="H1147">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="I1147">
-        <v>4.4000000000000004</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="1148" spans="1:9" x14ac:dyDescent="0.25">
@@ -33516,28 +33516,28 @@
         <v>9</v>
       </c>
       <c r="B1148" s="4">
-        <v>44710</v>
+        <v>44649</v>
       </c>
       <c r="C1148">
         <v>0</v>
       </c>
       <c r="D1148">
-        <v>27.3</v>
+        <v>24.3</v>
       </c>
       <c r="E1148">
-        <v>37.299999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="F1148">
-        <v>28.2</v>
+        <v>26.6</v>
       </c>
       <c r="G1148">
-        <v>61.8</v>
+        <v>76.3</v>
       </c>
       <c r="H1148">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I1148">
-        <v>4.9000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="1149" spans="1:9" x14ac:dyDescent="0.25">
@@ -33545,28 +33545,28 @@
         <v>9</v>
       </c>
       <c r="B1149" s="4">
-        <v>44711</v>
+        <v>44650</v>
       </c>
       <c r="C1149">
         <v>0</v>
       </c>
       <c r="D1149">
-        <v>28.3</v>
+        <v>22.9</v>
       </c>
       <c r="E1149">
-        <v>38.799999999999997</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="F1149">
-        <v>24.2</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="G1149">
-        <v>61.5</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="H1149">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I1149">
-        <v>5.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="1150" spans="1:9" x14ac:dyDescent="0.25">
@@ -33574,28 +33574,28 @@
         <v>9</v>
       </c>
       <c r="B1150" s="4">
-        <v>44712</v>
+        <v>44651</v>
       </c>
       <c r="C1150">
         <v>0</v>
       </c>
       <c r="D1150">
-        <v>28.4</v>
+        <v>24.7</v>
       </c>
       <c r="E1150">
-        <v>38.299999999999997</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="F1150">
-        <v>30.1</v>
+        <v>13.9</v>
       </c>
       <c r="G1150">
-        <v>55.2</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="H1150">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I1150">
-        <v>2.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1151" spans="1:9" x14ac:dyDescent="0.25">
@@ -33603,28 +33603,28 @@
         <v>9</v>
       </c>
       <c r="B1151" s="4">
-        <v>44713</v>
+        <v>44652</v>
       </c>
       <c r="C1151">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D1151">
-        <v>24.9</v>
+        <v>23.7</v>
       </c>
       <c r="E1151">
-        <v>37.1</v>
+        <v>39</v>
       </c>
       <c r="F1151">
-        <v>33.200000000000003</v>
+        <v>17.2</v>
       </c>
       <c r="G1151">
-        <v>79.8</v>
+        <v>89.2</v>
       </c>
       <c r="H1151">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I1151">
-        <v>4.9000000000000004</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1152" spans="1:9" x14ac:dyDescent="0.25">
@@ -33632,28 +33632,28 @@
         <v>9</v>
       </c>
       <c r="B1152" s="4">
-        <v>44714</v>
+        <v>44653</v>
       </c>
       <c r="C1152">
         <v>0</v>
       </c>
       <c r="D1152">
-        <v>27.8</v>
+        <v>24</v>
       </c>
       <c r="E1152">
-        <v>35.9</v>
+        <v>37.9</v>
       </c>
       <c r="F1152">
-        <v>38.1</v>
+        <v>29.1</v>
       </c>
       <c r="G1152">
-        <v>62.8</v>
+        <v>91</v>
       </c>
       <c r="H1152">
         <v>0</v>
       </c>
       <c r="I1152">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="1153" spans="1:9" x14ac:dyDescent="0.25">
@@ -33661,28 +33661,28 @@
         <v>9</v>
       </c>
       <c r="B1153" s="4">
-        <v>44715</v>
+        <v>44654</v>
       </c>
       <c r="C1153">
         <v>0</v>
       </c>
       <c r="D1153">
-        <v>26.4</v>
+        <v>24.1</v>
       </c>
       <c r="E1153">
-        <v>38.299999999999997</v>
+        <v>37.1</v>
       </c>
       <c r="F1153">
-        <v>29.4</v>
+        <v>30</v>
       </c>
       <c r="G1153">
-        <v>62.9</v>
+        <v>88.5</v>
       </c>
       <c r="H1153">
         <v>0</v>
       </c>
       <c r="I1153">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="1154" spans="1:9" x14ac:dyDescent="0.25">
@@ -33690,28 +33690,28 @@
         <v>9</v>
       </c>
       <c r="B1154" s="4">
-        <v>44716</v>
+        <v>44655</v>
       </c>
       <c r="C1154">
         <v>0</v>
       </c>
       <c r="D1154">
-        <v>26.6</v>
+        <v>24.8</v>
       </c>
       <c r="E1154">
-        <v>37.4</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="F1154">
-        <v>26.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="G1154">
-        <v>63.4</v>
+        <v>79.8</v>
       </c>
       <c r="H1154">
         <v>0</v>
       </c>
       <c r="I1154">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="1155" spans="1:9" x14ac:dyDescent="0.25">
@@ -33719,28 +33719,28 @@
         <v>9</v>
       </c>
       <c r="B1155" s="4">
-        <v>44717</v>
+        <v>44656</v>
       </c>
       <c r="C1155">
         <v>0</v>
       </c>
       <c r="D1155">
-        <v>26.3</v>
+        <v>25.3</v>
       </c>
       <c r="E1155">
-        <v>37.799999999999997</v>
+        <v>37</v>
       </c>
       <c r="F1155">
-        <v>22.6</v>
+        <v>33.6</v>
       </c>
       <c r="G1155">
-        <v>51.5</v>
+        <v>75</v>
       </c>
       <c r="H1155">
         <v>0</v>
       </c>
       <c r="I1155">
-        <v>2.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1156" spans="1:9" x14ac:dyDescent="0.25">
@@ -33748,28 +33748,28 @@
         <v>9</v>
       </c>
       <c r="B1156" s="4">
-        <v>44718</v>
+        <v>44657</v>
       </c>
       <c r="C1156">
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="D1156">
-        <v>23.4</v>
+        <v>24.9</v>
       </c>
       <c r="E1156">
-        <v>40.1</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="F1156">
-        <v>24.6</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="G1156">
-        <v>80.8</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="H1156">
         <v>0</v>
       </c>
       <c r="I1156">
-        <v>2.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157" spans="1:9" x14ac:dyDescent="0.25">
@@ -33777,28 +33777,28 @@
         <v>9</v>
       </c>
       <c r="B1157" s="4">
-        <v>44719</v>
+        <v>44658</v>
       </c>
       <c r="C1157">
         <v>0</v>
       </c>
       <c r="D1157">
-        <v>27</v>
+        <v>24.7</v>
       </c>
       <c r="E1157">
-        <v>35.4</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F1157">
-        <v>33.9</v>
+        <v>31.6</v>
       </c>
       <c r="G1157">
-        <v>65.3</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="H1157">
         <v>0</v>
       </c>
       <c r="I1157">
-        <v>3.2</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="1158" spans="1:9" x14ac:dyDescent="0.25">
@@ -33806,28 +33806,28 @@
         <v>9</v>
       </c>
       <c r="B1158" s="4">
-        <v>44720</v>
+        <v>44659</v>
       </c>
       <c r="C1158">
         <v>0</v>
       </c>
       <c r="D1158">
-        <v>26.3</v>
+        <v>25</v>
       </c>
       <c r="E1158">
-        <v>38.700000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="F1158">
-        <v>23.9</v>
+        <v>26</v>
       </c>
       <c r="G1158">
-        <v>72.3</v>
+        <v>69.8</v>
       </c>
       <c r="H1158">
         <v>0</v>
       </c>
       <c r="I1158">
-        <v>3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="1159" spans="1:9" x14ac:dyDescent="0.25">
@@ -33835,28 +33835,28 @@
         <v>9</v>
       </c>
       <c r="B1159" s="4">
-        <v>44721</v>
+        <v>44660</v>
       </c>
       <c r="C1159">
         <v>0</v>
       </c>
       <c r="D1159">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="E1159">
-        <v>35.299999999999997</v>
+        <v>36.5</v>
       </c>
       <c r="F1159">
-        <v>37.799999999999997</v>
+        <v>20.2</v>
       </c>
       <c r="G1159">
-        <v>66.7</v>
+        <v>84.5</v>
       </c>
       <c r="H1159">
         <v>0</v>
       </c>
       <c r="I1159">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1160" spans="1:9" x14ac:dyDescent="0.25">
@@ -33864,22 +33864,22 @@
         <v>9</v>
       </c>
       <c r="B1160" s="4">
-        <v>44722</v>
+        <v>44661</v>
       </c>
       <c r="C1160">
         <v>0</v>
       </c>
       <c r="D1160">
-        <v>26.4</v>
+        <v>25.1</v>
       </c>
       <c r="E1160">
-        <v>36.799999999999997</v>
+        <v>37</v>
       </c>
       <c r="F1160">
-        <v>33.5</v>
+        <v>28.2</v>
       </c>
       <c r="G1160">
-        <v>70.099999999999994</v>
+        <v>82.1</v>
       </c>
       <c r="H1160">
         <v>0</v>
@@ -33893,28 +33893,28 @@
         <v>9</v>
       </c>
       <c r="B1161" s="4">
-        <v>44723</v>
+        <v>44662</v>
       </c>
       <c r="C1161">
         <v>0</v>
       </c>
       <c r="D1161">
-        <v>25.1</v>
+        <v>25.8</v>
       </c>
       <c r="E1161">
-        <v>35.299999999999997</v>
+        <v>37.1</v>
       </c>
       <c r="F1161">
-        <v>38.700000000000003</v>
+        <v>34.1</v>
       </c>
       <c r="G1161">
-        <v>77.099999999999994</v>
+        <v>73.2</v>
       </c>
       <c r="H1161">
         <v>0</v>
       </c>
       <c r="I1161">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="1162" spans="1:9" x14ac:dyDescent="0.25">
@@ -33922,28 +33922,28 @@
         <v>9</v>
       </c>
       <c r="B1162" s="4">
-        <v>44724</v>
+        <v>44663</v>
       </c>
       <c r="C1162">
         <v>0</v>
       </c>
       <c r="D1162">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="E1162">
-        <v>34.9</v>
+        <v>37.4</v>
       </c>
       <c r="F1162">
-        <v>40.4</v>
+        <v>29.9</v>
       </c>
       <c r="G1162">
-        <v>75.7</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="H1162">
         <v>0</v>
       </c>
       <c r="I1162">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="1163" spans="1:9" x14ac:dyDescent="0.25">
@@ -33951,28 +33951,28 @@
         <v>9</v>
       </c>
       <c r="B1163" s="4">
-        <v>44725</v>
+        <v>44664</v>
       </c>
       <c r="C1163">
         <v>0</v>
       </c>
       <c r="D1163">
-        <v>25.4</v>
+        <v>24.6</v>
       </c>
       <c r="E1163">
-        <v>34.799999999999997</v>
+        <v>38</v>
       </c>
       <c r="F1163">
-        <v>38.1</v>
+        <v>25.5</v>
       </c>
       <c r="G1163">
-        <v>75.8</v>
+        <v>79.5</v>
       </c>
       <c r="H1163">
         <v>0</v>
       </c>
       <c r="I1163">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="1164" spans="1:9" x14ac:dyDescent="0.25">
@@ -33980,28 +33980,28 @@
         <v>9</v>
       </c>
       <c r="B1164" s="4">
-        <v>44726</v>
+        <v>44665</v>
       </c>
       <c r="C1164">
+        <v>0</v>
+      </c>
+      <c r="D1164">
+        <v>24.9</v>
+      </c>
+      <c r="E1164">
+        <v>36.4</v>
+      </c>
+      <c r="F1164">
         <v>25.3</v>
       </c>
-      <c r="D1164">
-        <v>22.5</v>
-      </c>
-      <c r="E1164">
-        <v>35.9</v>
-      </c>
-      <c r="F1164">
-        <v>35.799999999999997</v>
-      </c>
       <c r="G1164">
-        <v>98.2</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="H1164">
         <v>0</v>
       </c>
       <c r="I1164">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="1165" spans="1:9" x14ac:dyDescent="0.25">
@@ -34009,28 +34009,28 @@
         <v>9</v>
       </c>
       <c r="B1165" s="4">
-        <v>44727</v>
+        <v>44666</v>
       </c>
       <c r="C1165">
         <v>0</v>
       </c>
       <c r="D1165">
+        <v>28</v>
+      </c>
+      <c r="E1165">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="F1165">
         <v>24.5</v>
       </c>
-      <c r="E1165">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="F1165">
-        <v>44.5</v>
-      </c>
       <c r="G1165">
-        <v>84.2</v>
+        <v>67.2</v>
       </c>
       <c r="H1165">
         <v>0</v>
       </c>
       <c r="I1165">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="1166" spans="1:9" x14ac:dyDescent="0.25">
@@ -34038,28 +34038,28 @@
         <v>9</v>
       </c>
       <c r="B1166" s="4">
-        <v>44728</v>
+        <v>44667</v>
       </c>
       <c r="C1166">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1166">
-        <v>23.3</v>
+        <v>24.7</v>
       </c>
       <c r="E1166">
-        <v>33.5</v>
+        <v>36.6</v>
       </c>
       <c r="F1166">
-        <v>46.9</v>
+        <v>33</v>
       </c>
       <c r="G1166">
-        <v>94.4</v>
+        <v>55.3</v>
       </c>
       <c r="H1166">
         <v>0</v>
       </c>
       <c r="I1166">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="1167" spans="1:9" x14ac:dyDescent="0.25">
@@ -34067,28 +34067,28 @@
         <v>9</v>
       </c>
       <c r="B1167" s="4">
-        <v>44729</v>
+        <v>44668</v>
       </c>
       <c r="C1167">
         <v>0</v>
       </c>
       <c r="D1167">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="E1167">
-        <v>33.5</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="F1167">
-        <v>48.6</v>
+        <v>24.9</v>
       </c>
       <c r="G1167">
-        <v>87.9</v>
+        <v>56.7</v>
       </c>
       <c r="H1167">
         <v>0</v>
       </c>
       <c r="I1167">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="1168" spans="1:9" x14ac:dyDescent="0.25">
@@ -34096,28 +34096,28 @@
         <v>9</v>
       </c>
       <c r="B1168" s="4">
-        <v>44730</v>
+        <v>44669</v>
       </c>
       <c r="C1168">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D1168">
-        <v>25.1</v>
+        <v>26.5</v>
       </c>
       <c r="E1168">
-        <v>35</v>
+        <v>38.6</v>
       </c>
       <c r="F1168">
-        <v>45.2</v>
+        <v>25.7</v>
       </c>
       <c r="G1168">
-        <v>86.7</v>
+        <v>78.5</v>
       </c>
       <c r="H1168">
         <v>0</v>
       </c>
       <c r="I1168">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="1169" spans="1:9" x14ac:dyDescent="0.25">
@@ -34125,28 +34125,28 @@
         <v>9</v>
       </c>
       <c r="B1169" s="4">
-        <v>44731</v>
+        <v>44670</v>
       </c>
       <c r="C1169">
         <v>0</v>
       </c>
       <c r="D1169">
-        <v>26.1</v>
+        <v>25.7</v>
       </c>
       <c r="E1169">
-        <v>33.6</v>
+        <v>39</v>
       </c>
       <c r="F1169">
-        <v>45.2</v>
+        <v>27.2</v>
       </c>
       <c r="G1169">
-        <v>80.599999999999994</v>
+        <v>78.3</v>
       </c>
       <c r="H1169">
         <v>0</v>
       </c>
       <c r="I1169">
-        <v>2.2000000000000002</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="1170" spans="1:9" x14ac:dyDescent="0.25">
@@ -34154,28 +34154,28 @@
         <v>9</v>
       </c>
       <c r="B1170" s="4">
-        <v>44732</v>
+        <v>44671</v>
       </c>
       <c r="C1170">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D1170">
-        <v>25.1</v>
+        <v>27.4</v>
       </c>
       <c r="E1170">
-        <v>32.799999999999997</v>
+        <v>39.1</v>
       </c>
       <c r="F1170">
-        <v>54</v>
+        <v>23.7</v>
       </c>
       <c r="G1170">
-        <v>85.5</v>
+        <v>47.1</v>
       </c>
       <c r="H1170">
         <v>0</v>
       </c>
       <c r="I1170">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="1171" spans="1:9" x14ac:dyDescent="0.25">
@@ -34183,28 +34183,28 @@
         <v>9</v>
       </c>
       <c r="B1171" s="4">
-        <v>44733</v>
+        <v>44672</v>
       </c>
       <c r="C1171">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="D1171">
-        <v>22.2</v>
+        <v>26</v>
       </c>
       <c r="E1171">
-        <v>32.9</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="F1171">
-        <v>48.5</v>
+        <v>18.7</v>
       </c>
       <c r="G1171">
-        <v>98.7</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="H1171">
         <v>0</v>
       </c>
       <c r="I1171">
-        <v>2.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1172" spans="1:9" x14ac:dyDescent="0.25">
@@ -34212,28 +34212,28 @@
         <v>9</v>
       </c>
       <c r="B1172" s="4">
-        <v>44734</v>
+        <v>44673</v>
       </c>
       <c r="C1172">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="D1172">
-        <v>24.1</v>
+        <v>22.5</v>
       </c>
       <c r="E1172">
-        <v>31.7</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="F1172">
-        <v>59.3</v>
+        <v>26</v>
       </c>
       <c r="G1172">
-        <v>89.3</v>
+        <v>82.7</v>
       </c>
       <c r="H1172">
         <v>0</v>
       </c>
       <c r="I1172">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1173" spans="1:9" x14ac:dyDescent="0.25">
@@ -34241,28 +34241,28 @@
         <v>9</v>
       </c>
       <c r="B1173" s="4">
-        <v>44735</v>
+        <v>44674</v>
       </c>
       <c r="C1173">
         <v>0</v>
       </c>
       <c r="D1173">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="E1173">
-        <v>32.200000000000003</v>
+        <v>35.1</v>
       </c>
       <c r="F1173">
-        <v>53.7</v>
+        <v>37.1</v>
       </c>
       <c r="G1173">
-        <v>83.3</v>
+        <v>79.5</v>
       </c>
       <c r="H1173">
         <v>0</v>
       </c>
       <c r="I1173">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="1174" spans="1:9" x14ac:dyDescent="0.25">
@@ -34270,28 +34270,28 @@
         <v>9</v>
       </c>
       <c r="B1174" s="4">
-        <v>44736</v>
+        <v>44675</v>
       </c>
       <c r="C1174">
         <v>0</v>
       </c>
       <c r="D1174">
-        <v>24.7</v>
+        <v>27</v>
       </c>
       <c r="E1174">
-        <v>32.9</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="F1174">
-        <v>49.2</v>
+        <v>32.4</v>
       </c>
       <c r="G1174">
-        <v>81.900000000000006</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="H1174">
         <v>0</v>
       </c>
       <c r="I1174">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="1175" spans="1:9" x14ac:dyDescent="0.25">
@@ -34299,28 +34299,28 @@
         <v>9</v>
       </c>
       <c r="B1175" s="4">
-        <v>44737</v>
+        <v>44676</v>
       </c>
       <c r="C1175">
-        <v>23.7</v>
+        <v>0</v>
       </c>
       <c r="D1175">
-        <v>22.5</v>
+        <v>25.9</v>
       </c>
       <c r="E1175">
-        <v>32.200000000000003</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="F1175">
-        <v>56.9</v>
+        <v>28.3</v>
       </c>
       <c r="G1175">
-        <v>96.1</v>
+        <v>60.9</v>
       </c>
       <c r="H1175">
         <v>0</v>
       </c>
       <c r="I1175">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="1176" spans="1:9" x14ac:dyDescent="0.25">
@@ -34328,28 +34328,28 @@
         <v>9</v>
       </c>
       <c r="B1176" s="4">
-        <v>44738</v>
+        <v>44677</v>
       </c>
       <c r="C1176">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="D1176">
-        <v>22.6</v>
+        <v>28</v>
       </c>
       <c r="E1176">
-        <v>31.8</v>
+        <v>39.5</v>
       </c>
       <c r="F1176">
-        <v>57.6</v>
+        <v>23.3</v>
       </c>
       <c r="G1176">
-        <v>94.9</v>
+        <v>63.8</v>
       </c>
       <c r="H1176">
         <v>0</v>
       </c>
       <c r="I1176">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1177" spans="1:9" x14ac:dyDescent="0.25">
@@ -34357,28 +34357,28 @@
         <v>9</v>
       </c>
       <c r="B1177" s="4">
-        <v>44739</v>
+        <v>44678</v>
       </c>
       <c r="C1177">
-        <v>5.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="D1177">
-        <v>22.1</v>
+        <v>27</v>
       </c>
       <c r="E1177">
-        <v>29.6</v>
+        <v>39.4</v>
       </c>
       <c r="F1177">
-        <v>65.8</v>
+        <v>24.5</v>
       </c>
       <c r="G1177">
-        <v>95.1</v>
+        <v>62.1</v>
       </c>
       <c r="H1177">
         <v>0</v>
       </c>
       <c r="I1177">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="1178" spans="1:9" x14ac:dyDescent="0.25">
@@ -34386,28 +34386,28 @@
         <v>9</v>
       </c>
       <c r="B1178" s="4">
-        <v>44740</v>
+        <v>44679</v>
       </c>
       <c r="C1178">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D1178">
-        <v>23</v>
+        <v>28.3</v>
       </c>
       <c r="E1178">
-        <v>29.4</v>
+        <v>39.5</v>
       </c>
       <c r="F1178">
-        <v>65.099999999999994</v>
+        <v>24.2</v>
       </c>
       <c r="G1178">
-        <v>96.7</v>
+        <v>59.8</v>
       </c>
       <c r="H1178">
         <v>0</v>
       </c>
       <c r="I1178">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1179" spans="1:9" x14ac:dyDescent="0.25">
@@ -34415,28 +34415,28 @@
         <v>9</v>
       </c>
       <c r="B1179" s="4">
-        <v>44741</v>
+        <v>44680</v>
       </c>
       <c r="C1179">
-        <v>29.4</v>
+        <v>0.4</v>
       </c>
       <c r="D1179">
-        <v>22.9</v>
+        <v>26.1</v>
       </c>
       <c r="E1179">
-        <v>31.6</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="F1179">
-        <v>63.5</v>
+        <v>25.2</v>
       </c>
       <c r="G1179">
-        <v>96.3</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="H1179">
         <v>0</v>
       </c>
       <c r="I1179">
-        <v>1.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1180" spans="1:9" x14ac:dyDescent="0.25">
@@ -34444,28 +34444,28 @@
         <v>9</v>
       </c>
       <c r="B1180" s="4">
-        <v>44742</v>
+        <v>44681</v>
       </c>
       <c r="C1180">
         <v>0</v>
       </c>
       <c r="D1180">
-        <v>24.2</v>
+        <v>27</v>
       </c>
       <c r="E1180">
-        <v>32.200000000000003</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="F1180">
-        <v>58.5</v>
+        <v>20.9</v>
       </c>
       <c r="G1180">
-        <v>90.3</v>
+        <v>55.8</v>
       </c>
       <c r="H1180">
         <v>0</v>
       </c>
       <c r="I1180">
-        <v>2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="1181" spans="1:9" x14ac:dyDescent="0.25">
@@ -34473,28 +34473,28 @@
         <v>9</v>
       </c>
       <c r="B1181" s="4">
-        <v>44743</v>
+        <v>44682</v>
       </c>
       <c r="C1181">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="D1181">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="E1181">
-        <v>31.9</v>
+        <v>40.6</v>
       </c>
       <c r="F1181">
-        <v>61.3</v>
+        <v>22.1</v>
       </c>
       <c r="G1181">
-        <v>86.2</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="H1181">
         <v>0</v>
       </c>
       <c r="I1181">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="1182" spans="1:9" x14ac:dyDescent="0.25">
@@ -34502,28 +34502,28 @@
         <v>9</v>
       </c>
       <c r="B1182" s="4">
-        <v>44744</v>
+        <v>44683</v>
       </c>
       <c r="C1182">
-        <v>22.6</v>
+        <v>0</v>
       </c>
       <c r="D1182">
-        <v>23</v>
+        <v>29.6</v>
       </c>
       <c r="E1182">
-        <v>32.9</v>
+        <v>40</v>
       </c>
       <c r="F1182">
-        <v>55.5</v>
+        <v>15.7</v>
       </c>
       <c r="G1182">
-        <v>96</v>
+        <v>55.7</v>
       </c>
       <c r="H1182">
         <v>0</v>
       </c>
       <c r="I1182">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="1183" spans="1:9" x14ac:dyDescent="0.25">
@@ -34531,28 +34531,28 @@
         <v>9</v>
       </c>
       <c r="B1183" s="4">
-        <v>44745</v>
+        <v>44684</v>
       </c>
       <c r="C1183">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="D1183">
-        <v>23.1</v>
+        <v>28.4</v>
       </c>
       <c r="E1183">
-        <v>31.4</v>
+        <v>39.9</v>
       </c>
       <c r="F1183">
-        <v>63.1</v>
+        <v>16.7</v>
       </c>
       <c r="G1183">
-        <v>97.2</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="H1183">
         <v>0</v>
       </c>
       <c r="I1183">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="1184" spans="1:9" x14ac:dyDescent="0.25">
@@ -34560,28 +34560,28 @@
         <v>9</v>
       </c>
       <c r="B1184" s="4">
-        <v>44746</v>
+        <v>44685</v>
       </c>
       <c r="C1184">
-        <v>8.3000000000000007</v>
+        <v>35.1</v>
       </c>
       <c r="D1184">
-        <v>23.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="E1184">
-        <v>31.9</v>
+        <v>39.1</v>
       </c>
       <c r="F1184">
-        <v>61.9</v>
+        <v>31.1</v>
       </c>
       <c r="G1184">
-        <v>98.2</v>
+        <v>93.5</v>
       </c>
       <c r="H1184">
         <v>0</v>
       </c>
       <c r="I1184">
-        <v>1.7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1185" spans="1:9" x14ac:dyDescent="0.25">
@@ -34589,28 +34589,28 @@
         <v>9</v>
       </c>
       <c r="B1185" s="4">
-        <v>44747</v>
+        <v>44686</v>
       </c>
       <c r="C1185">
-        <v>8.3000000000000007</v>
+        <v>0.9</v>
       </c>
       <c r="D1185">
-        <v>22.9</v>
+        <v>21.7</v>
       </c>
       <c r="E1185">
-        <v>29.9</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="F1185">
-        <v>70.099999999999994</v>
+        <v>34.6</v>
       </c>
       <c r="G1185">
-        <v>96.3</v>
+        <v>94.3</v>
       </c>
       <c r="H1185">
         <v>0</v>
       </c>
       <c r="I1185">
-        <v>2.2999999999999998</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="1186" spans="1:9" x14ac:dyDescent="0.25">
@@ -34618,28 +34618,28 @@
         <v>9</v>
       </c>
       <c r="B1186" s="4">
-        <v>44748</v>
+        <v>44687</v>
       </c>
       <c r="C1186">
-        <v>16.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="D1186">
-        <v>22.2</v>
+        <v>25.8</v>
       </c>
       <c r="E1186">
-        <v>32.299999999999997</v>
+        <v>36.5</v>
       </c>
       <c r="F1186">
-        <v>62.2</v>
+        <v>28</v>
       </c>
       <c r="G1186">
-        <v>96.7</v>
+        <v>82.2</v>
       </c>
       <c r="H1186">
         <v>0</v>
       </c>
       <c r="I1186">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1187" spans="1:9" x14ac:dyDescent="0.25">
@@ -34647,28 +34647,28 @@
         <v>9</v>
       </c>
       <c r="B1187" s="4">
-        <v>44749</v>
+        <v>44688</v>
       </c>
       <c r="C1187">
         <v>0</v>
       </c>
       <c r="D1187">
-        <v>23.9</v>
+        <v>27.3</v>
       </c>
       <c r="E1187">
-        <v>28</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="F1187">
-        <v>76.3</v>
+        <v>16.7</v>
       </c>
       <c r="G1187">
-        <v>93.9</v>
+        <v>61.9</v>
       </c>
       <c r="H1187">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I1187">
-        <v>2.7</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="1188" spans="1:9" x14ac:dyDescent="0.25">
@@ -34676,28 +34676,28 @@
         <v>9</v>
       </c>
       <c r="B1188" s="4">
-        <v>44750</v>
+        <v>44689</v>
       </c>
       <c r="C1188">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="D1188">
-        <v>22.9</v>
+        <v>29.8</v>
       </c>
       <c r="E1188">
-        <v>29.5</v>
+        <v>39.1</v>
       </c>
       <c r="F1188">
-        <v>68.3</v>
+        <v>21.1</v>
       </c>
       <c r="G1188">
-        <v>94.1</v>
+        <v>60.6</v>
       </c>
       <c r="H1188">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I1188">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="1189" spans="1:9" x14ac:dyDescent="0.25">
@@ -34705,28 +34705,28 @@
         <v>9</v>
       </c>
       <c r="B1189" s="4">
-        <v>44751</v>
+        <v>44690</v>
       </c>
       <c r="C1189">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="D1189">
-        <v>21.7</v>
+        <v>26.8</v>
       </c>
       <c r="E1189">
-        <v>24.9</v>
+        <v>37.6</v>
       </c>
       <c r="F1189">
-        <v>88.1</v>
+        <v>26.4</v>
       </c>
       <c r="G1189">
-        <v>97.7</v>
+        <v>73</v>
       </c>
       <c r="H1189">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I1189">
-        <v>2.2999999999999998</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="1190" spans="1:9" x14ac:dyDescent="0.25">
@@ -34734,28 +34734,28 @@
         <v>9</v>
       </c>
       <c r="B1190" s="4">
-        <v>44752</v>
+        <v>44691</v>
       </c>
       <c r="C1190">
-        <v>26.1</v>
+        <v>0</v>
       </c>
       <c r="D1190">
-        <v>21</v>
+        <v>27.4</v>
       </c>
       <c r="E1190">
-        <v>23.5</v>
+        <v>39.1</v>
       </c>
       <c r="F1190">
-        <v>91.7</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="G1190">
-        <v>97.8</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="H1190">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I1190">
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="1191" spans="1:9" x14ac:dyDescent="0.25">
@@ -34763,28 +34763,28 @@
         <v>9</v>
       </c>
       <c r="B1191" s="4">
-        <v>44753</v>
+        <v>44692</v>
       </c>
       <c r="C1191">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="D1191">
-        <v>21.7</v>
+        <v>26.4</v>
       </c>
       <c r="E1191">
-        <v>24.1</v>
+        <v>37.5</v>
       </c>
       <c r="F1191">
-        <v>92.1</v>
+        <v>22.7</v>
       </c>
       <c r="G1191">
-        <v>99.1</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="H1191">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I1191">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="1192" spans="1:9" x14ac:dyDescent="0.25">
@@ -34792,28 +34792,28 @@
         <v>9</v>
       </c>
       <c r="B1192" s="4">
-        <v>44754</v>
+        <v>44693</v>
       </c>
       <c r="C1192">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="D1192">
-        <v>21.2</v>
+        <v>26.9</v>
       </c>
       <c r="E1192">
-        <v>25.6</v>
+        <v>31.9</v>
       </c>
       <c r="F1192">
-        <v>84.4</v>
+        <v>51.4</v>
       </c>
       <c r="G1192">
-        <v>98.7</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="H1192">
         <v>0</v>
       </c>
       <c r="I1192">
-        <v>2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="1193" spans="1:9" x14ac:dyDescent="0.25">
@@ -34821,28 +34821,28 @@
         <v>9</v>
       </c>
       <c r="B1193" s="4">
-        <v>44755</v>
+        <v>44694</v>
       </c>
       <c r="C1193">
-        <v>16.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="D1193">
-        <v>20.7</v>
+        <v>26</v>
       </c>
       <c r="E1193">
-        <v>23.6</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="F1193">
-        <v>89.9</v>
+        <v>49.8</v>
       </c>
       <c r="G1193">
-        <v>98.7</v>
+        <v>84.8</v>
       </c>
       <c r="H1193">
         <v>0</v>
       </c>
       <c r="I1193">
-        <v>3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="1194" spans="1:9" x14ac:dyDescent="0.25">
@@ -34850,28 +34850,28 @@
         <v>9</v>
       </c>
       <c r="B1194" s="4">
-        <v>44756</v>
+        <v>44695</v>
       </c>
       <c r="C1194">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1194">
-        <v>21.7</v>
+        <v>27.7</v>
       </c>
       <c r="E1194">
-        <v>23.4</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="F1194">
-        <v>87</v>
+        <v>34.1</v>
       </c>
       <c r="G1194">
-        <v>95.9</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="H1194">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I1194">
-        <v>10.3</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="1195" spans="1:9" x14ac:dyDescent="0.25">
@@ -34879,28 +34879,28 @@
         <v>9</v>
       </c>
       <c r="B1195" s="4">
-        <v>44757</v>
+        <v>44696</v>
       </c>
       <c r="C1195">
         <v>0</v>
       </c>
       <c r="D1195">
-        <v>23.1</v>
+        <v>26.2</v>
       </c>
       <c r="E1195">
-        <v>26.6</v>
+        <v>39.9</v>
       </c>
       <c r="F1195">
-        <v>79.5</v>
+        <v>28.4</v>
       </c>
       <c r="G1195">
-        <v>90.3</v>
+        <v>76.7</v>
       </c>
       <c r="H1195">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I1195">
-        <v>3.3</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="1196" spans="1:9" x14ac:dyDescent="0.25">
@@ -34908,28 +34908,28 @@
         <v>9</v>
       </c>
       <c r="B1196" s="4">
-        <v>44758</v>
+        <v>44697</v>
       </c>
       <c r="C1196">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="D1196">
-        <v>22.6</v>
+        <v>22.2</v>
       </c>
       <c r="E1196">
-        <v>28.8</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="F1196">
-        <v>69.900000000000006</v>
+        <v>36.9</v>
       </c>
       <c r="G1196">
-        <v>89.3</v>
+        <v>100</v>
       </c>
       <c r="H1196">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I1196">
-        <v>3.9</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="1197" spans="1:9" x14ac:dyDescent="0.25">
@@ -34937,28 +34937,28 @@
         <v>9</v>
       </c>
       <c r="B1197" s="4">
-        <v>44759</v>
+        <v>44698</v>
       </c>
       <c r="C1197">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D1197">
-        <v>23</v>
+        <v>26.9</v>
       </c>
       <c r="E1197">
-        <v>31.3</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="F1197">
-        <v>63.5</v>
+        <v>53.4</v>
       </c>
       <c r="G1197">
-        <v>96.3</v>
+        <v>91.2</v>
       </c>
       <c r="H1197">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="I1197">
-        <v>3.2</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="1198" spans="1:9" x14ac:dyDescent="0.25">
@@ -34966,28 +34966,28 @@
         <v>9</v>
       </c>
       <c r="B1198" s="4">
-        <v>44760</v>
+        <v>44699</v>
       </c>
       <c r="C1198">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="D1198">
-        <v>22.6</v>
+        <v>27</v>
       </c>
       <c r="E1198">
-        <v>28.3</v>
+        <v>36.5</v>
       </c>
       <c r="F1198">
-        <v>74.2</v>
+        <v>54.8</v>
       </c>
       <c r="G1198">
-        <v>97.3</v>
+        <v>86.7</v>
       </c>
       <c r="H1198">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I1198">
-        <v>2.2000000000000002</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="1199" spans="1:9" x14ac:dyDescent="0.25">
@@ -34995,28 +34995,28 @@
         <v>9</v>
       </c>
       <c r="B1199" s="4">
-        <v>44761</v>
+        <v>44700</v>
       </c>
       <c r="C1199">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="D1199">
-        <v>22.6</v>
+        <v>25.4</v>
       </c>
       <c r="E1199">
-        <v>28.6</v>
+        <v>35.1</v>
       </c>
       <c r="F1199">
-        <v>71.7</v>
+        <v>60</v>
       </c>
       <c r="G1199">
-        <v>95.8</v>
+        <v>95.2</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I1199">
-        <v>2.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1200" spans="1:9" x14ac:dyDescent="0.25">
@@ -35024,28 +35024,28 @@
         <v>9</v>
       </c>
       <c r="B1200" s="4">
-        <v>44762</v>
+        <v>44701</v>
       </c>
       <c r="C1200">
         <v>0</v>
       </c>
       <c r="D1200">
-        <v>24</v>
+        <v>26.1</v>
       </c>
       <c r="E1200">
-        <v>30.9</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="F1200">
-        <v>62.7</v>
+        <v>67.8</v>
       </c>
       <c r="G1200">
-        <v>91.2</v>
+        <v>95.7</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1200">
-        <v>2.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="1201" spans="1:9" x14ac:dyDescent="0.25">
@@ -35053,28 +35053,28 @@
         <v>9</v>
       </c>
       <c r="B1201" s="4">
-        <v>44763</v>
+        <v>44702</v>
       </c>
       <c r="C1201">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1201">
-        <v>24.5</v>
+        <v>23.1</v>
       </c>
       <c r="E1201">
-        <v>32.6</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="F1201">
-        <v>58.3</v>
+        <v>54.4</v>
       </c>
       <c r="G1201">
-        <v>89.7</v>
+        <v>100</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I1201">
-        <v>1.7</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="1202" spans="1:9" x14ac:dyDescent="0.25">
@@ -35082,28 +35082,28 @@
         <v>9</v>
       </c>
       <c r="B1202" s="4">
-        <v>44764</v>
+        <v>44703</v>
       </c>
       <c r="C1202">
         <v>0</v>
       </c>
       <c r="D1202">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="E1202">
-        <v>30.9</v>
+        <v>32.4</v>
       </c>
       <c r="F1202">
-        <v>62.1</v>
+        <v>60.8</v>
       </c>
       <c r="G1202">
-        <v>92.5</v>
+        <v>75.2</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I1202">
-        <v>2.6</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="1203" spans="1:9" x14ac:dyDescent="0.25">
@@ -35111,28 +35111,28 @@
         <v>9</v>
       </c>
       <c r="B1203" s="4">
-        <v>44765</v>
+        <v>44704</v>
       </c>
       <c r="C1203">
-        <v>86.1</v>
+        <v>0</v>
       </c>
       <c r="D1203">
-        <v>21.4</v>
+        <v>25.2</v>
       </c>
       <c r="E1203">
-        <v>27.2</v>
+        <v>35.1</v>
       </c>
       <c r="F1203">
-        <v>80.5</v>
+        <v>43.5</v>
       </c>
       <c r="G1203">
-        <v>100</v>
+        <v>85.5</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I1203">
-        <v>2.7</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="1204" spans="1:9" x14ac:dyDescent="0.25">
@@ -35140,28 +35140,28 @@
         <v>9</v>
       </c>
       <c r="B1204" s="4">
-        <v>44766</v>
+        <v>44705</v>
       </c>
       <c r="C1204">
         <v>0</v>
       </c>
       <c r="D1204">
-        <v>22.8</v>
+        <v>26.3</v>
       </c>
       <c r="E1204">
-        <v>26.8</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="F1204">
-        <v>80.400000000000006</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="G1204">
-        <v>98.6</v>
+        <v>78.5</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I1204">
-        <v>2</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="1205" spans="1:9" x14ac:dyDescent="0.25">
@@ -35169,28 +35169,28 @@
         <v>9</v>
       </c>
       <c r="B1205" s="4">
-        <v>44767</v>
+        <v>44706</v>
       </c>
       <c r="C1205">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1205">
-        <v>21.9</v>
+        <v>27.9</v>
       </c>
       <c r="E1205">
-        <v>28.3</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="F1205">
-        <v>71.7</v>
+        <v>37.4</v>
       </c>
       <c r="G1205">
-        <v>96.3</v>
+        <v>64.5</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I1205">
-        <v>2.2999999999999998</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1206" spans="1:9" x14ac:dyDescent="0.25">
@@ -35198,28 +35198,28 @@
         <v>9</v>
       </c>
       <c r="B1206" s="4">
-        <v>44768</v>
+        <v>44707</v>
       </c>
       <c r="C1206">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="D1206">
-        <v>21.7</v>
+        <v>25.2</v>
       </c>
       <c r="E1206">
-        <v>29.8</v>
+        <v>37.1</v>
       </c>
       <c r="F1206">
-        <v>66.3</v>
+        <v>30.1</v>
       </c>
       <c r="G1206">
-        <v>99.1</v>
+        <v>73.2</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I1206">
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="1207" spans="1:9" x14ac:dyDescent="0.25">
@@ -35227,28 +35227,28 @@
         <v>9</v>
       </c>
       <c r="B1207" s="4">
-        <v>44769</v>
+        <v>44708</v>
       </c>
       <c r="C1207">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="D1207">
-        <v>22.6</v>
+        <v>27.1</v>
       </c>
       <c r="E1207">
-        <v>27.9</v>
+        <v>37.4</v>
       </c>
       <c r="F1207">
-        <v>79.2</v>
+        <v>31.9</v>
       </c>
       <c r="G1207">
-        <v>100</v>
+        <v>62.3</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I1207">
-        <v>1.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1208" spans="1:9" x14ac:dyDescent="0.25">
@@ -35256,28 +35256,28 @@
         <v>9</v>
       </c>
       <c r="B1208" s="4">
-        <v>44770</v>
+        <v>44709</v>
       </c>
       <c r="C1208">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="D1208">
-        <v>23.4</v>
+        <v>26.9</v>
       </c>
       <c r="E1208">
-        <v>30.6</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="F1208">
-        <v>71.5</v>
+        <v>25.7</v>
       </c>
       <c r="G1208">
-        <v>100</v>
+        <v>64.5</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I1208">
-        <v>1.1000000000000001</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="1209" spans="1:9" x14ac:dyDescent="0.25">
@@ -35285,28 +35285,28 @@
         <v>9</v>
       </c>
       <c r="B1209" s="4">
-        <v>44771</v>
+        <v>44710</v>
       </c>
       <c r="C1209">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D1209">
-        <v>22.2</v>
+        <v>27.3</v>
       </c>
       <c r="E1209">
-        <v>32.5</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="F1209">
-        <v>62.5</v>
+        <v>28.2</v>
       </c>
       <c r="G1209">
-        <v>100</v>
+        <v>61.8</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I1209">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="1210" spans="1:9" x14ac:dyDescent="0.25">
@@ -35314,28 +35314,28 @@
         <v>9</v>
       </c>
       <c r="B1210" s="4">
-        <v>44772</v>
+        <v>44711</v>
       </c>
       <c r="C1210">
-        <v>44.4</v>
+        <v>0</v>
       </c>
       <c r="D1210">
-        <v>21.4</v>
+        <v>28.3</v>
       </c>
       <c r="E1210">
-        <v>33.200000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="F1210">
-        <v>57</v>
+        <v>24.2</v>
       </c>
       <c r="G1210">
-        <v>100</v>
+        <v>61.5</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I1210">
-        <v>1.2</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="1211" spans="1:9" x14ac:dyDescent="0.25">
@@ -35343,28 +35343,28 @@
         <v>9</v>
       </c>
       <c r="B1211" s="4">
-        <v>44773</v>
+        <v>44712</v>
       </c>
       <c r="C1211">
         <v>0</v>
       </c>
       <c r="D1211">
-        <v>22.8</v>
+        <v>28.4</v>
       </c>
       <c r="E1211">
-        <v>33.799999999999997</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="F1211">
-        <v>53</v>
+        <v>30.1</v>
       </c>
       <c r="G1211">
-        <v>96.3</v>
+        <v>55.2</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I1211">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="1212" spans="1:9" x14ac:dyDescent="0.25">
@@ -35372,28 +35372,28 @@
         <v>9</v>
       </c>
       <c r="B1212" s="4">
-        <v>44774</v>
+        <v>44713</v>
       </c>
       <c r="C1212">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D1212">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="E1212">
-        <v>33.4</v>
+        <v>37.1</v>
       </c>
       <c r="F1212">
-        <v>54.5</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="G1212">
-        <v>93.9</v>
+        <v>79.8</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I1212">
-        <v>3.3</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
@@ -35401,28 +35401,28 @@
         <v>9</v>
       </c>
       <c r="B1213" s="4">
-        <v>44775</v>
+        <v>44714</v>
       </c>
       <c r="C1213">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="D1213">
-        <v>23.9</v>
+        <v>27.8</v>
       </c>
       <c r="E1213">
-        <v>30.9</v>
+        <v>35.9</v>
       </c>
       <c r="F1213">
-        <v>68.7</v>
+        <v>38.1</v>
       </c>
       <c r="G1213">
-        <v>98.2</v>
+        <v>62.8</v>
       </c>
       <c r="H1213">
         <v>0</v>
       </c>
       <c r="I1213">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="1214" spans="1:9" x14ac:dyDescent="0.25">
@@ -35430,28 +35430,28 @@
         <v>9</v>
       </c>
       <c r="B1214" s="4">
-        <v>44776</v>
+        <v>44715</v>
       </c>
       <c r="C1214">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="D1214">
-        <v>22.6</v>
+        <v>26.4</v>
       </c>
       <c r="E1214">
-        <v>30.4</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="F1214">
-        <v>68.7</v>
+        <v>29.4</v>
       </c>
       <c r="G1214">
-        <v>99.1</v>
+        <v>62.9</v>
       </c>
       <c r="H1214">
         <v>0</v>
       </c>
       <c r="I1214">
-        <v>2.2000000000000002</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1215" spans="1:9" x14ac:dyDescent="0.25">
@@ -35459,28 +35459,28 @@
         <v>9</v>
       </c>
       <c r="B1215" s="4">
-        <v>44777</v>
+        <v>44716</v>
       </c>
       <c r="C1215">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D1215">
-        <v>23.6</v>
+        <v>26.6</v>
       </c>
       <c r="E1215">
-        <v>32</v>
+        <v>37.4</v>
       </c>
       <c r="F1215">
-        <v>65.2</v>
+        <v>26.7</v>
       </c>
       <c r="G1215">
-        <v>99.1</v>
+        <v>63.4</v>
       </c>
       <c r="H1215">
         <v>0</v>
       </c>
       <c r="I1215">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1216" spans="1:9" x14ac:dyDescent="0.25">
@@ -35488,28 +35488,28 @@
         <v>9</v>
       </c>
       <c r="B1216" s="4">
-        <v>44778</v>
+        <v>44717</v>
       </c>
       <c r="C1216">
-        <v>17.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="D1216">
-        <v>23.3</v>
+        <v>26.3</v>
       </c>
       <c r="E1216">
-        <v>31.7</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="F1216">
-        <v>65.400000000000006</v>
+        <v>22.6</v>
       </c>
       <c r="G1216">
-        <v>96.3</v>
+        <v>51.5</v>
       </c>
       <c r="H1216">
         <v>0</v>
       </c>
       <c r="I1216">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="1217" spans="1:9" x14ac:dyDescent="0.25">
@@ -35517,28 +35517,28 @@
         <v>9</v>
       </c>
       <c r="B1217" s="4">
-        <v>44779</v>
+        <v>44718</v>
       </c>
       <c r="C1217">
+        <v>14.7</v>
+      </c>
+      <c r="D1217">
+        <v>23.4</v>
+      </c>
+      <c r="E1217">
+        <v>40.1</v>
+      </c>
+      <c r="F1217">
+        <v>24.6</v>
+      </c>
+      <c r="G1217">
+        <v>80.8</v>
+      </c>
+      <c r="H1217">
+        <v>0</v>
+      </c>
+      <c r="I1217">
         <v>2.7</v>
-      </c>
-      <c r="D1217">
-        <v>23.2</v>
-      </c>
-      <c r="E1217">
-        <v>31.5</v>
-      </c>
-      <c r="F1217">
-        <v>64.2</v>
-      </c>
-      <c r="G1217">
-        <v>98.6</v>
-      </c>
-      <c r="H1217">
-        <v>0</v>
-      </c>
-      <c r="I1217">
-        <v>3.5</v>
       </c>
     </row>
     <row r="1218" spans="1:9" x14ac:dyDescent="0.25">
@@ -35546,28 +35546,28 @@
         <v>9</v>
       </c>
       <c r="B1218" s="4">
-        <v>44780</v>
+        <v>44719</v>
       </c>
       <c r="C1218">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="D1218">
-        <v>22.1</v>
+        <v>27</v>
       </c>
       <c r="E1218">
-        <v>29.3</v>
+        <v>35.4</v>
       </c>
       <c r="F1218">
-        <v>71.599999999999994</v>
+        <v>33.9</v>
       </c>
       <c r="G1218">
-        <v>98.2</v>
+        <v>65.3</v>
       </c>
       <c r="H1218">
         <v>0</v>
       </c>
       <c r="I1218">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="1219" spans="1:9" x14ac:dyDescent="0.25">
@@ -35575,28 +35575,28 @@
         <v>9</v>
       </c>
       <c r="B1219" s="4">
-        <v>44781</v>
+        <v>44720</v>
       </c>
       <c r="C1219">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="D1219">
-        <v>22</v>
+        <v>26.3</v>
       </c>
       <c r="E1219">
-        <v>27</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="F1219">
-        <v>79.5</v>
+        <v>23.9</v>
       </c>
       <c r="G1219">
-        <v>99.1</v>
+        <v>72.3</v>
       </c>
       <c r="H1219">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I1219">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1220" spans="1:9" x14ac:dyDescent="0.25">
@@ -35604,28 +35604,28 @@
         <v>9</v>
       </c>
       <c r="B1220" s="4">
-        <v>44782</v>
+        <v>44721</v>
       </c>
       <c r="C1220">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D1220">
-        <v>21.7</v>
+        <v>25</v>
       </c>
       <c r="E1220">
-        <v>24.6</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="F1220">
-        <v>87.6</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="G1220">
-        <v>98.2</v>
+        <v>66.7</v>
       </c>
       <c r="H1220">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I1220">
-        <v>4.0999999999999996</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1221" spans="1:9" x14ac:dyDescent="0.25">
@@ -35633,28 +35633,28 @@
         <v>9</v>
       </c>
       <c r="B1221" s="4">
-        <v>44783</v>
+        <v>44722</v>
       </c>
       <c r="C1221">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D1221">
-        <v>22.4</v>
+        <v>26.4</v>
       </c>
       <c r="E1221">
-        <v>26.7</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="F1221">
-        <v>77.400000000000006</v>
+        <v>33.5</v>
       </c>
       <c r="G1221">
-        <v>97.8</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="H1221">
         <v>0</v>
       </c>
       <c r="I1221">
-        <v>5.2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="1222" spans="1:9" x14ac:dyDescent="0.25">
@@ -35662,28 +35662,28 @@
         <v>9</v>
       </c>
       <c r="B1222" s="4">
-        <v>44784</v>
+        <v>44723</v>
       </c>
       <c r="C1222">
         <v>0</v>
       </c>
       <c r="D1222">
-        <v>22.8</v>
+        <v>25.1</v>
       </c>
       <c r="E1222">
-        <v>28.7</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="F1222">
-        <v>70.400000000000006</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="G1222">
-        <v>87.2</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="H1222">
         <v>0</v>
       </c>
       <c r="I1222">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="1223" spans="1:9" x14ac:dyDescent="0.25">
@@ -35691,28 +35691,28 @@
         <v>9</v>
       </c>
       <c r="B1223" s="4">
-        <v>44785</v>
+        <v>44724</v>
       </c>
       <c r="C1223">
         <v>0</v>
       </c>
       <c r="D1223">
-        <v>23.5</v>
+        <v>25.4</v>
       </c>
       <c r="E1223">
-        <v>28.9</v>
+        <v>34.9</v>
       </c>
       <c r="F1223">
-        <v>69.400000000000006</v>
+        <v>40.4</v>
       </c>
       <c r="G1223">
-        <v>86.7</v>
+        <v>75.7</v>
       </c>
       <c r="H1223">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I1223">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="1224" spans="1:9" x14ac:dyDescent="0.25">
@@ -35720,28 +35720,28 @@
         <v>9</v>
       </c>
       <c r="B1224" s="4">
-        <v>44786</v>
+        <v>44725</v>
       </c>
       <c r="C1224">
         <v>0</v>
       </c>
       <c r="D1224">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="E1224">
-        <v>30.4</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F1224">
-        <v>63.5</v>
+        <v>38.1</v>
       </c>
       <c r="G1224">
-        <v>88.6</v>
+        <v>75.8</v>
       </c>
       <c r="H1224">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I1224">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="1225" spans="1:9" x14ac:dyDescent="0.25">
@@ -35749,28 +35749,28 @@
         <v>9</v>
       </c>
       <c r="B1225" s="4">
-        <v>44787</v>
+        <v>44726</v>
       </c>
       <c r="C1225">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="D1225">
-        <v>22.9</v>
+        <v>22.5</v>
       </c>
       <c r="E1225">
-        <v>28.5</v>
+        <v>35.9</v>
       </c>
       <c r="F1225">
-        <v>69.599999999999994</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G1225">
-        <v>88.1</v>
+        <v>98.2</v>
       </c>
       <c r="H1225">
         <v>0</v>
       </c>
       <c r="I1225">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="1226" spans="1:9" x14ac:dyDescent="0.25">
@@ -35778,28 +35778,28 @@
         <v>9</v>
       </c>
       <c r="B1226" s="4">
-        <v>44788</v>
+        <v>44727</v>
       </c>
       <c r="C1226">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D1226">
-        <v>21.6</v>
+        <v>24.5</v>
       </c>
       <c r="E1226">
-        <v>24.5</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="F1226">
-        <v>82.4</v>
+        <v>44.5</v>
       </c>
       <c r="G1226">
-        <v>99.1</v>
+        <v>84.2</v>
       </c>
       <c r="H1226">
         <v>0</v>
       </c>
       <c r="I1226">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="1227" spans="1:9" x14ac:dyDescent="0.25">
@@ -35807,28 +35807,28 @@
         <v>9</v>
       </c>
       <c r="B1227" s="4">
-        <v>44789</v>
+        <v>44728</v>
       </c>
       <c r="C1227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1227">
-        <v>22.4</v>
+        <v>23.3</v>
       </c>
       <c r="E1227">
-        <v>26</v>
+        <v>33.5</v>
       </c>
       <c r="F1227">
-        <v>80.7</v>
+        <v>46.9</v>
       </c>
       <c r="G1227">
-        <v>97.8</v>
+        <v>94.4</v>
       </c>
       <c r="H1227">
         <v>0</v>
       </c>
       <c r="I1227">
-        <v>5.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="1228" spans="1:9" x14ac:dyDescent="0.25">
@@ -35836,28 +35836,28 @@
         <v>9</v>
       </c>
       <c r="B1228" s="4">
-        <v>44790</v>
+        <v>44729</v>
       </c>
       <c r="C1228">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D1228">
-        <v>23</v>
+        <v>25.5</v>
       </c>
       <c r="E1228">
-        <v>31.7</v>
+        <v>33.5</v>
       </c>
       <c r="F1228">
-        <v>59.1</v>
+        <v>48.6</v>
       </c>
       <c r="G1228">
-        <v>95.3</v>
+        <v>87.9</v>
       </c>
       <c r="H1228">
         <v>0</v>
       </c>
       <c r="I1228">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="1229" spans="1:9" x14ac:dyDescent="0.25">
@@ -35865,28 +35865,28 @@
         <v>9</v>
       </c>
       <c r="B1229" s="4">
-        <v>44791</v>
+        <v>44730</v>
       </c>
       <c r="C1229">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D1229">
-        <v>22.9</v>
+        <v>25.1</v>
       </c>
       <c r="E1229">
-        <v>31.9</v>
+        <v>35</v>
       </c>
       <c r="F1229">
-        <v>58</v>
+        <v>45.2</v>
       </c>
       <c r="G1229">
-        <v>89.8</v>
+        <v>86.7</v>
       </c>
       <c r="H1229">
         <v>0</v>
       </c>
       <c r="I1229">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="1230" spans="1:9" x14ac:dyDescent="0.25">
@@ -35894,28 +35894,28 @@
         <v>9</v>
       </c>
       <c r="B1230" s="4">
-        <v>44792</v>
+        <v>44731</v>
       </c>
       <c r="C1230">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D1230">
-        <v>23.5</v>
+        <v>26.1</v>
       </c>
       <c r="E1230">
-        <v>32.200000000000003</v>
+        <v>33.6</v>
       </c>
       <c r="F1230">
-        <v>59.3</v>
+        <v>45.2</v>
       </c>
       <c r="G1230">
-        <v>94.6</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="H1230">
         <v>0</v>
       </c>
       <c r="I1230">
-        <v>3.3</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="1231" spans="1:9" x14ac:dyDescent="0.25">
@@ -35923,28 +35923,28 @@
         <v>9</v>
       </c>
       <c r="B1231" s="4">
-        <v>44793</v>
+        <v>44732</v>
       </c>
       <c r="C1231">
-        <v>13.9</v>
+        <v>0.3</v>
       </c>
       <c r="D1231">
-        <v>22.6</v>
+        <v>25.1</v>
       </c>
       <c r="E1231">
-        <v>31.6</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="F1231">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G1231">
-        <v>99.6</v>
+        <v>85.5</v>
       </c>
       <c r="H1231">
         <v>0</v>
       </c>
       <c r="I1231">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="1232" spans="1:9" x14ac:dyDescent="0.25">
@@ -35952,28 +35952,28 @@
         <v>9</v>
       </c>
       <c r="B1232" s="4">
-        <v>44794</v>
+        <v>44733</v>
       </c>
       <c r="C1232">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="D1232">
-        <v>23.4</v>
+        <v>22.2</v>
       </c>
       <c r="E1232">
-        <v>31.5</v>
+        <v>32.9</v>
       </c>
       <c r="F1232">
-        <v>66.400000000000006</v>
+        <v>48.5</v>
       </c>
       <c r="G1232">
-        <v>88.4</v>
+        <v>98.7</v>
       </c>
       <c r="H1232">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I1232">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="1233" spans="1:9" x14ac:dyDescent="0.25">
@@ -35981,28 +35981,28 @@
         <v>9</v>
       </c>
       <c r="B1233" s="4">
-        <v>44795</v>
+        <v>44734</v>
       </c>
       <c r="C1233">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D1233">
-        <v>22.8</v>
+        <v>24.1</v>
       </c>
       <c r="E1233">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="F1233">
-        <v>61.9</v>
+        <v>59.3</v>
       </c>
       <c r="G1233">
-        <v>87.7</v>
+        <v>89.3</v>
       </c>
       <c r="H1233">
         <v>0</v>
       </c>
       <c r="I1233">
-        <v>5.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="1234" spans="1:9" x14ac:dyDescent="0.25">
@@ -36010,28 +36010,28 @@
         <v>9</v>
       </c>
       <c r="B1234" s="4">
-        <v>44796</v>
+        <v>44735</v>
       </c>
       <c r="C1234">
         <v>0</v>
       </c>
       <c r="D1234">
-        <v>22.3</v>
+        <v>24.3</v>
       </c>
       <c r="E1234">
-        <v>30.6</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="F1234">
-        <v>63.1</v>
+        <v>53.7</v>
       </c>
       <c r="G1234">
-        <v>89</v>
+        <v>83.3</v>
       </c>
       <c r="H1234">
         <v>0</v>
       </c>
       <c r="I1234">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1235" spans="1:9" x14ac:dyDescent="0.25">
@@ -36039,28 +36039,28 @@
         <v>9</v>
       </c>
       <c r="B1235" s="4">
-        <v>44797</v>
+        <v>44736</v>
       </c>
       <c r="C1235">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D1235">
-        <v>22.9</v>
+        <v>24.7</v>
       </c>
       <c r="E1235">
-        <v>32.5</v>
+        <v>32.9</v>
       </c>
       <c r="F1235">
-        <v>58</v>
+        <v>49.2</v>
       </c>
       <c r="G1235">
-        <v>90.8</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="H1235">
         <v>0</v>
       </c>
       <c r="I1235">
-        <v>5.0999999999999996</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="1236" spans="1:9" x14ac:dyDescent="0.25">
@@ -36068,28 +36068,28 @@
         <v>9</v>
       </c>
       <c r="B1236" s="4">
-        <v>44798</v>
+        <v>44737</v>
       </c>
       <c r="C1236">
-        <v>0.4</v>
+        <v>23.7</v>
       </c>
       <c r="D1236">
-        <v>23.2</v>
+        <v>22.5</v>
       </c>
       <c r="E1236">
-        <v>32.6</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="F1236">
-        <v>57</v>
+        <v>56.9</v>
       </c>
       <c r="G1236">
-        <v>89.9</v>
+        <v>96.1</v>
       </c>
       <c r="H1236">
         <v>0</v>
       </c>
       <c r="I1236">
-        <v>4.0999999999999996</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="1237" spans="1:9" x14ac:dyDescent="0.25">
@@ -36097,28 +36097,28 @@
         <v>9</v>
       </c>
       <c r="B1237" s="4">
-        <v>44799</v>
+        <v>44738</v>
       </c>
       <c r="C1237">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="D1237">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="E1237">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="F1237">
-        <v>56.5</v>
+        <v>57.6</v>
       </c>
       <c r="G1237">
-        <v>94.4</v>
+        <v>94.9</v>
       </c>
       <c r="H1237">
         <v>0</v>
       </c>
       <c r="I1237">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="1238" spans="1:9" x14ac:dyDescent="0.25">
@@ -36126,28 +36126,28 @@
         <v>9</v>
       </c>
       <c r="B1238" s="4">
-        <v>44800</v>
+        <v>44739</v>
       </c>
       <c r="C1238">
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D1238">
-        <v>23.3</v>
+        <v>22.1</v>
       </c>
       <c r="E1238">
-        <v>32.5</v>
+        <v>29.6</v>
       </c>
       <c r="F1238">
-        <v>56.1</v>
+        <v>65.8</v>
       </c>
       <c r="G1238">
-        <v>88</v>
+        <v>95.1</v>
       </c>
       <c r="H1238">
         <v>0</v>
       </c>
       <c r="I1238">
-        <v>4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="1239" spans="1:9" x14ac:dyDescent="0.25">
@@ -36155,28 +36155,28 @@
         <v>9</v>
       </c>
       <c r="B1239" s="4">
-        <v>44801</v>
+        <v>44740</v>
       </c>
       <c r="C1239">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1239">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="E1239">
-        <v>32.200000000000003</v>
+        <v>29.4</v>
       </c>
       <c r="F1239">
-        <v>58.3</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="G1239">
-        <v>92.5</v>
+        <v>96.7</v>
       </c>
       <c r="H1239">
         <v>0</v>
       </c>
       <c r="I1239">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="1240" spans="1:9" x14ac:dyDescent="0.25">
@@ -36184,28 +36184,28 @@
         <v>9</v>
       </c>
       <c r="B1240" s="4">
-        <v>44802</v>
+        <v>44741</v>
       </c>
       <c r="C1240">
-        <v>0</v>
+        <v>29.4</v>
       </c>
       <c r="D1240">
-        <v>23.7</v>
+        <v>22.9</v>
       </c>
       <c r="E1240">
-        <v>32.200000000000003</v>
+        <v>31.6</v>
       </c>
       <c r="F1240">
-        <v>56.5</v>
+        <v>63.5</v>
       </c>
       <c r="G1240">
-        <v>93.4</v>
+        <v>96.3</v>
       </c>
       <c r="H1240">
         <v>0</v>
       </c>
       <c r="I1240">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="1241" spans="1:9" x14ac:dyDescent="0.25">
@@ -36213,28 +36213,28 @@
         <v>9</v>
       </c>
       <c r="B1241" s="4">
-        <v>44803</v>
+        <v>44742</v>
       </c>
       <c r="C1241">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="D1241">
-        <v>22</v>
+        <v>24.2</v>
       </c>
       <c r="E1241">
-        <v>31.4</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="F1241">
-        <v>66.8</v>
+        <v>58.5</v>
       </c>
       <c r="G1241">
-        <v>98.7</v>
+        <v>90.3</v>
       </c>
       <c r="H1241">
         <v>0</v>
       </c>
       <c r="I1241">
-        <v>2.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1242" spans="1:9" x14ac:dyDescent="0.25">
@@ -36242,28 +36242,28 @@
         <v>9</v>
       </c>
       <c r="B1242" s="4">
-        <v>44804</v>
+        <v>44743</v>
       </c>
       <c r="C1242">
         <v>0</v>
       </c>
       <c r="D1242">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="E1242">
-        <v>32.4</v>
+        <v>31.9</v>
       </c>
       <c r="F1242">
-        <v>56.5</v>
+        <v>61.3</v>
       </c>
       <c r="G1242">
-        <v>96.3</v>
+        <v>86.2</v>
       </c>
       <c r="H1242">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I1242">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="1243" spans="1:9" x14ac:dyDescent="0.25">
@@ -36271,28 +36271,28 @@
         <v>9</v>
       </c>
       <c r="B1243" s="4">
-        <v>44805</v>
+        <v>44744</v>
       </c>
       <c r="C1243">
-        <v>0</v>
+        <v>22.6</v>
       </c>
       <c r="D1243">
-        <v>24.5</v>
+        <v>23</v>
       </c>
       <c r="E1243">
-        <v>33.200000000000003</v>
+        <v>32.9</v>
       </c>
       <c r="F1243">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="G1243">
-        <v>89.8</v>
+        <v>96</v>
       </c>
       <c r="H1243">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I1243">
-        <v>4.2</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="1244" spans="1:9" x14ac:dyDescent="0.25">
@@ -36300,28 +36300,28 @@
         <v>9</v>
       </c>
       <c r="B1244" s="4">
-        <v>44806</v>
+        <v>44745</v>
       </c>
       <c r="C1244">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="D1244">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="E1244">
-        <v>32.9</v>
+        <v>31.4</v>
       </c>
       <c r="F1244">
-        <v>53</v>
+        <v>63.1</v>
       </c>
       <c r="G1244">
-        <v>93.9</v>
+        <v>97.2</v>
       </c>
       <c r="H1244">
         <v>0</v>
       </c>
       <c r="I1244">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="1245" spans="1:9" x14ac:dyDescent="0.25">
@@ -36329,28 +36329,28 @@
         <v>9</v>
       </c>
       <c r="B1245" s="4">
-        <v>44807</v>
+        <v>44746</v>
       </c>
       <c r="C1245">
-        <v>0</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D1245">
-        <v>24.1</v>
+        <v>23.1</v>
       </c>
       <c r="E1245">
-        <v>32.6</v>
+        <v>31.9</v>
       </c>
       <c r="F1245">
-        <v>59</v>
+        <v>61.9</v>
       </c>
       <c r="G1245">
-        <v>93.9</v>
+        <v>98.2</v>
       </c>
       <c r="H1245">
         <v>0</v>
       </c>
       <c r="I1245">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="1246" spans="1:9" x14ac:dyDescent="0.25">
@@ -36358,28 +36358,28 @@
         <v>9</v>
       </c>
       <c r="B1246" s="4">
-        <v>44808</v>
+        <v>44747</v>
       </c>
       <c r="C1246">
-        <v>0</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D1246">
-        <v>23.5</v>
+        <v>22.9</v>
       </c>
       <c r="E1246">
-        <v>33.799999999999997</v>
+        <v>29.9</v>
       </c>
       <c r="F1246">
-        <v>53</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="G1246">
-        <v>87.1</v>
+        <v>96.3</v>
       </c>
       <c r="H1246">
         <v>0</v>
       </c>
       <c r="I1246">
-        <v>4.5999999999999996</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="1247" spans="1:9" x14ac:dyDescent="0.25">
@@ -36387,28 +36387,28 @@
         <v>9</v>
       </c>
       <c r="B1247" s="4">
-        <v>44809</v>
+        <v>44748</v>
       </c>
       <c r="C1247">
-        <v>0</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D1247">
-        <v>23.7</v>
+        <v>22.2</v>
       </c>
       <c r="E1247">
-        <v>30.9</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="F1247">
-        <v>62</v>
+        <v>62.2</v>
       </c>
       <c r="G1247">
-        <v>97.2</v>
+        <v>96.7</v>
       </c>
       <c r="H1247">
         <v>0</v>
       </c>
       <c r="I1247">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1248" spans="1:9" x14ac:dyDescent="0.25">
@@ -36416,28 +36416,28 @@
         <v>9</v>
       </c>
       <c r="B1248" s="4">
-        <v>44810</v>
+        <v>44749</v>
       </c>
       <c r="C1248">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="D1248">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="E1248">
-        <v>32.9</v>
+        <v>28</v>
       </c>
       <c r="F1248">
-        <v>56.5</v>
+        <v>76.3</v>
       </c>
       <c r="G1248">
-        <v>99.6</v>
+        <v>93.9</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I1248">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="1249" spans="1:9" x14ac:dyDescent="0.25">
@@ -36445,28 +36445,28 @@
         <v>9</v>
       </c>
       <c r="B1249" s="4">
-        <v>44811</v>
+        <v>44750</v>
       </c>
       <c r="C1249">
-        <v>23.7</v>
+        <v>1.6</v>
       </c>
       <c r="D1249">
-        <v>21.6</v>
+        <v>22.9</v>
       </c>
       <c r="E1249">
-        <v>32.799999999999997</v>
+        <v>29.5</v>
       </c>
       <c r="F1249">
-        <v>56.5</v>
+        <v>68.3</v>
       </c>
       <c r="G1249">
-        <v>100</v>
+        <v>94.1</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I1249">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1250" spans="1:9" x14ac:dyDescent="0.25">
@@ -36474,28 +36474,28 @@
         <v>9</v>
       </c>
       <c r="B1250" s="4">
-        <v>44812</v>
+        <v>44751</v>
       </c>
       <c r="C1250">
-        <v>62.6</v>
+        <v>23.3</v>
       </c>
       <c r="D1250">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="E1250">
-        <v>32.799999999999997</v>
+        <v>24.9</v>
       </c>
       <c r="F1250">
-        <v>59</v>
+        <v>88.1</v>
       </c>
       <c r="G1250">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I1250">
-        <v>2.7</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="1251" spans="1:9" x14ac:dyDescent="0.25">
@@ -36503,28 +36503,28 @@
         <v>9</v>
       </c>
       <c r="B1251" s="4">
-        <v>44813</v>
+        <v>44752</v>
       </c>
       <c r="C1251">
-        <v>47.7</v>
+        <v>26.1</v>
       </c>
       <c r="D1251">
-        <v>21.7</v>
+        <v>21</v>
       </c>
       <c r="E1251">
-        <v>29.4</v>
+        <v>23.5</v>
       </c>
       <c r="F1251">
-        <v>74</v>
+        <v>91.7</v>
       </c>
       <c r="G1251">
-        <v>100</v>
+        <v>97.8</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I1251">
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="1252" spans="1:9" x14ac:dyDescent="0.25">
@@ -36532,28 +36532,28 @@
         <v>9</v>
       </c>
       <c r="B1252" s="4">
-        <v>44814</v>
+        <v>44753</v>
       </c>
       <c r="C1252">
-        <v>4.4000000000000004</v>
+        <v>17.8</v>
       </c>
       <c r="D1252">
-        <v>22.6</v>
+        <v>21.7</v>
       </c>
       <c r="E1252">
-        <v>30.3</v>
+        <v>24.1</v>
       </c>
       <c r="F1252">
-        <v>69.900000000000006</v>
+        <v>92.1</v>
       </c>
       <c r="G1252">
-        <v>100</v>
+        <v>99.1</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I1252">
-        <v>2.2999999999999998</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="1253" spans="1:9" x14ac:dyDescent="0.25">
@@ -36561,28 +36561,28 @@
         <v>9</v>
       </c>
       <c r="B1253" s="4">
-        <v>44815</v>
+        <v>44754</v>
       </c>
       <c r="C1253">
-        <v>14</v>
+        <v>12.9</v>
       </c>
       <c r="D1253">
-        <v>22.1</v>
+        <v>21.2</v>
       </c>
       <c r="E1253">
-        <v>28.9</v>
+        <v>25.6</v>
       </c>
       <c r="F1253">
-        <v>80.599999999999994</v>
+        <v>84.4</v>
       </c>
       <c r="G1253">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="H1253">
         <v>0</v>
       </c>
       <c r="I1253">
-        <v>4.9000000000000004</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1254" spans="1:9" x14ac:dyDescent="0.25">
@@ -36590,28 +36590,28 @@
         <v>9</v>
       </c>
       <c r="B1254" s="4">
-        <v>44816</v>
+        <v>44755</v>
       </c>
       <c r="C1254">
-        <v>3.5</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D1254">
-        <v>22.4</v>
+        <v>20.7</v>
       </c>
       <c r="E1254">
-        <v>24.4</v>
+        <v>23.6</v>
       </c>
       <c r="F1254">
-        <v>89.6</v>
+        <v>89.9</v>
       </c>
       <c r="G1254">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="H1254">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I1254">
-        <v>3.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1255" spans="1:9" x14ac:dyDescent="0.25">
@@ -36619,28 +36619,28 @@
         <v>9</v>
       </c>
       <c r="B1255" s="4">
-        <v>44817</v>
+        <v>44756</v>
       </c>
       <c r="C1255">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D1255">
-        <v>23</v>
+        <v>21.7</v>
       </c>
       <c r="E1255">
-        <v>28.1</v>
+        <v>23.4</v>
       </c>
       <c r="F1255">
-        <v>77.5</v>
+        <v>87</v>
       </c>
       <c r="G1255">
-        <v>97.8</v>
+        <v>95.9</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I1255">
-        <v>5.7</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="1256" spans="1:9" x14ac:dyDescent="0.25">
@@ -36648,28 +36648,28 @@
         <v>9</v>
       </c>
       <c r="B1256" s="4">
-        <v>44818</v>
+        <v>44757</v>
       </c>
       <c r="C1256">
         <v>0</v>
       </c>
       <c r="D1256">
-        <v>21.9</v>
+        <v>23.1</v>
       </c>
       <c r="E1256">
-        <v>28.2</v>
+        <v>26.6</v>
       </c>
       <c r="F1256">
-        <v>76.900000000000006</v>
+        <v>79.5</v>
       </c>
       <c r="G1256">
-        <v>93.1</v>
+        <v>90.3</v>
       </c>
       <c r="H1256">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I1256">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="1257" spans="1:9" x14ac:dyDescent="0.25">
@@ -36677,28 +36677,28 @@
         <v>9</v>
       </c>
       <c r="B1257" s="4">
-        <v>44819</v>
+        <v>44758</v>
       </c>
       <c r="C1257">
         <v>0</v>
       </c>
       <c r="D1257">
-        <v>22.1</v>
+        <v>22.6</v>
       </c>
       <c r="E1257">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="F1257">
-        <v>70.599999999999994</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="G1257">
-        <v>92.6</v>
+        <v>89.3</v>
       </c>
       <c r="H1257">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I1257">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="1258" spans="1:9" x14ac:dyDescent="0.25">
@@ -36706,28 +36706,28 @@
         <v>9</v>
       </c>
       <c r="B1258" s="4">
-        <v>44820</v>
+        <v>44759</v>
       </c>
       <c r="C1258">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D1258">
-        <v>22.3</v>
+        <v>23</v>
       </c>
       <c r="E1258">
-        <v>29</v>
+        <v>31.3</v>
       </c>
       <c r="F1258">
-        <v>70</v>
+        <v>63.5</v>
       </c>
       <c r="G1258">
-        <v>90.3</v>
+        <v>96.3</v>
       </c>
       <c r="H1258">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I1258">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="1259" spans="1:9" x14ac:dyDescent="0.25">
@@ -36735,28 +36735,28 @@
         <v>9</v>
       </c>
       <c r="B1259" s="4">
-        <v>44821</v>
+        <v>44760</v>
       </c>
       <c r="C1259">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="D1259">
-        <v>21.9</v>
+        <v>22.6</v>
       </c>
       <c r="E1259">
-        <v>29.9</v>
+        <v>28.3</v>
       </c>
       <c r="F1259">
-        <v>66.900000000000006</v>
+        <v>74.2</v>
       </c>
       <c r="G1259">
-        <v>93.1</v>
+        <v>97.3</v>
       </c>
       <c r="H1259">
         <v>0.1</v>
       </c>
       <c r="I1259">
-        <v>5.7</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="1260" spans="1:9" x14ac:dyDescent="0.25">
@@ -36764,28 +36764,28 @@
         <v>9</v>
       </c>
       <c r="B1260" s="4">
-        <v>44822</v>
+        <v>44761</v>
       </c>
       <c r="C1260">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="D1260">
-        <v>21.8</v>
+        <v>22.6</v>
       </c>
       <c r="E1260">
-        <v>31.1</v>
+        <v>28.6</v>
       </c>
       <c r="F1260">
-        <v>64.5</v>
+        <v>71.7</v>
       </c>
       <c r="G1260">
-        <v>93.5</v>
+        <v>95.8</v>
       </c>
       <c r="H1260">
         <v>0</v>
       </c>
       <c r="I1260">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1261" spans="1:9" x14ac:dyDescent="0.25">
@@ -36793,28 +36793,28 @@
         <v>9</v>
       </c>
       <c r="B1261" s="4">
-        <v>44823</v>
+        <v>44762</v>
       </c>
       <c r="C1261">
         <v>0</v>
       </c>
       <c r="D1261">
-        <v>22.6</v>
+        <v>24</v>
       </c>
       <c r="E1261">
-        <v>32</v>
+        <v>30.9</v>
       </c>
       <c r="F1261">
-        <v>59.5</v>
+        <v>62.7</v>
       </c>
       <c r="G1261">
-        <v>88.1</v>
+        <v>91.2</v>
       </c>
       <c r="H1261">
         <v>0</v>
       </c>
       <c r="I1261">
-        <v>4.0999999999999996</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1262" spans="1:9" x14ac:dyDescent="0.25">
@@ -36822,28 +36822,28 @@
         <v>9</v>
       </c>
       <c r="B1262" s="4">
-        <v>44824</v>
+        <v>44763</v>
       </c>
       <c r="C1262">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D1262">
-        <v>22</v>
+        <v>24.5</v>
       </c>
       <c r="E1262">
-        <v>29.9</v>
+        <v>32.6</v>
       </c>
       <c r="F1262">
-        <v>67</v>
+        <v>58.3</v>
       </c>
       <c r="G1262">
-        <v>99.1</v>
+        <v>89.7</v>
       </c>
       <c r="H1262">
         <v>0</v>
       </c>
       <c r="I1262">
-        <v>4.5999999999999996</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="1263" spans="1:9" x14ac:dyDescent="0.25">
@@ -36851,28 +36851,28 @@
         <v>9</v>
       </c>
       <c r="B1263" s="4">
-        <v>44825</v>
+        <v>44764</v>
       </c>
       <c r="C1263">
         <v>0</v>
       </c>
       <c r="D1263">
-        <v>22.1</v>
+        <v>24.6</v>
       </c>
       <c r="E1263">
-        <v>27.6</v>
+        <v>30.9</v>
       </c>
       <c r="F1263">
-        <v>77.599999999999994</v>
+        <v>62.1</v>
       </c>
       <c r="G1263">
-        <v>94.9</v>
+        <v>92.5</v>
       </c>
       <c r="H1263">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I1263">
-        <v>3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="1264" spans="1:9" x14ac:dyDescent="0.25">
@@ -36880,28 +36880,28 @@
         <v>9</v>
       </c>
       <c r="B1264" s="4">
-        <v>44826</v>
+        <v>44765</v>
       </c>
       <c r="C1264">
-        <v>2.1</v>
+        <v>86.1</v>
       </c>
       <c r="D1264">
-        <v>22.3</v>
+        <v>21.4</v>
       </c>
       <c r="E1264">
-        <v>30.1</v>
+        <v>27.2</v>
       </c>
       <c r="F1264">
-        <v>67.900000000000006</v>
+        <v>80.5</v>
       </c>
       <c r="G1264">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="H1264">
         <v>0</v>
       </c>
       <c r="I1264">
-        <v>4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="1265" spans="1:9" x14ac:dyDescent="0.25">
@@ -36909,28 +36909,28 @@
         <v>9</v>
       </c>
       <c r="B1265" s="4">
-        <v>44827</v>
+        <v>44766</v>
       </c>
       <c r="C1265">
         <v>0</v>
       </c>
       <c r="D1265">
-        <v>21.9</v>
+        <v>22.8</v>
       </c>
       <c r="E1265">
-        <v>25.5</v>
+        <v>26.8</v>
       </c>
       <c r="F1265">
-        <v>81.400000000000006</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="G1265">
-        <v>97.3</v>
+        <v>98.6</v>
       </c>
       <c r="H1265">
         <v>0</v>
       </c>
       <c r="I1265">
-        <v>3.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1266" spans="1:9" x14ac:dyDescent="0.25">
@@ -36938,28 +36938,28 @@
         <v>9</v>
       </c>
       <c r="B1266" s="4">
-        <v>44828</v>
+        <v>44767</v>
       </c>
       <c r="C1266">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1266">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="E1266">
-        <v>31.4</v>
+        <v>28.3</v>
       </c>
       <c r="F1266">
-        <v>54.6</v>
+        <v>71.7</v>
       </c>
       <c r="G1266">
-        <v>95.9</v>
+        <v>96.3</v>
       </c>
       <c r="H1266">
         <v>0</v>
       </c>
       <c r="I1266">
-        <v>3.9</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="1267" spans="1:9" x14ac:dyDescent="0.25">
@@ -36967,28 +36967,28 @@
         <v>9</v>
       </c>
       <c r="B1267" s="4">
-        <v>44829</v>
+        <v>44768</v>
       </c>
       <c r="C1267">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="D1267">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="E1267">
-        <v>32.4</v>
+        <v>29.8</v>
       </c>
       <c r="F1267">
-        <v>53</v>
+        <v>66.3</v>
       </c>
       <c r="G1267">
-        <v>97.3</v>
+        <v>99.1</v>
       </c>
       <c r="H1267">
         <v>0</v>
       </c>
       <c r="I1267">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1268" spans="1:9" x14ac:dyDescent="0.25">
@@ -36996,28 +36996,28 @@
         <v>9</v>
       </c>
       <c r="B1268" s="4">
-        <v>44830</v>
+        <v>44769</v>
       </c>
       <c r="C1268">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="D1268">
-        <v>21.9</v>
+        <v>22.6</v>
       </c>
       <c r="E1268">
-        <v>32.6</v>
+        <v>27.9</v>
       </c>
       <c r="F1268">
-        <v>56.4</v>
+        <v>79.2</v>
       </c>
       <c r="G1268">
-        <v>99.1</v>
+        <v>100</v>
       </c>
       <c r="H1268">
         <v>0</v>
       </c>
       <c r="I1268">
-        <v>3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="1269" spans="1:9" x14ac:dyDescent="0.25">
@@ -37025,19 +37025,19 @@
         <v>9</v>
       </c>
       <c r="B1269" s="4">
-        <v>44831</v>
+        <v>44770</v>
       </c>
       <c r="C1269">
-        <v>25.8</v>
+        <v>1.9</v>
       </c>
       <c r="D1269">
-        <v>21.8</v>
+        <v>23.4</v>
       </c>
       <c r="E1269">
-        <v>32.9</v>
+        <v>30.6</v>
       </c>
       <c r="F1269">
-        <v>54</v>
+        <v>71.5</v>
       </c>
       <c r="G1269">
         <v>100</v>
@@ -37046,7 +37046,7 @@
         <v>0</v>
       </c>
       <c r="I1269">
-        <v>3.6</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="1270" spans="1:9" x14ac:dyDescent="0.25">
@@ -37054,19 +37054,19 @@
         <v>9</v>
       </c>
       <c r="B1270" s="4">
-        <v>44832</v>
+        <v>44771</v>
       </c>
       <c r="C1270">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D1270">
         <v>22.2</v>
       </c>
       <c r="E1270">
-        <v>32.9</v>
+        <v>32.5</v>
       </c>
       <c r="F1270">
-        <v>56.5</v>
+        <v>62.5</v>
       </c>
       <c r="G1270">
         <v>100</v>
@@ -37075,7 +37075,7 @@
         <v>0</v>
       </c>
       <c r="I1270">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="1271" spans="1:9" x14ac:dyDescent="0.25">
@@ -37083,19 +37083,19 @@
         <v>9</v>
       </c>
       <c r="B1271" s="4">
-        <v>44833</v>
+        <v>44772</v>
       </c>
       <c r="C1271">
-        <v>3</v>
+        <v>44.4</v>
       </c>
       <c r="D1271">
-        <v>22.8</v>
+        <v>21.4</v>
       </c>
       <c r="E1271">
-        <v>31.9</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="F1271">
-        <v>59.5</v>
+        <v>57</v>
       </c>
       <c r="G1271">
         <v>100</v>
@@ -37104,7 +37104,7 @@
         <v>0</v>
       </c>
       <c r="I1271">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="1272" spans="1:9" x14ac:dyDescent="0.25">
@@ -37112,28 +37112,28 @@
         <v>9</v>
       </c>
       <c r="B1272" s="4">
-        <v>44834</v>
+        <v>44773</v>
       </c>
       <c r="C1272">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="D1272">
-        <v>22.1</v>
+        <v>22.8</v>
       </c>
       <c r="E1272">
-        <v>29.9</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="F1272">
-        <v>71.5</v>
+        <v>53</v>
       </c>
       <c r="G1272">
-        <v>100</v>
+        <v>96.3</v>
       </c>
       <c r="H1272">
         <v>0</v>
       </c>
       <c r="I1272">
-        <v>4.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1273" spans="1:9" x14ac:dyDescent="0.25">
@@ -37141,28 +37141,28 @@
         <v>9</v>
       </c>
       <c r="B1273" s="4">
-        <v>44621</v>
+        <v>44774</v>
       </c>
       <c r="C1273">
         <v>0</v>
       </c>
       <c r="D1273">
-        <v>20.399999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="E1273">
-        <v>33.799999999999997</v>
+        <v>33.4</v>
       </c>
       <c r="F1273">
-        <v>19.600000000000001</v>
+        <v>54.5</v>
       </c>
       <c r="G1273">
-        <v>68.8</v>
+        <v>93.9</v>
       </c>
       <c r="H1273">
         <v>0</v>
       </c>
       <c r="I1273">
-        <v>2.2999999999999998</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="1274" spans="1:9" x14ac:dyDescent="0.25">
@@ -37170,28 +37170,28 @@
         <v>9</v>
       </c>
       <c r="B1274" s="4">
-        <v>44622</v>
+        <v>44775</v>
       </c>
       <c r="C1274">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="D1274">
-        <v>19.8</v>
+        <v>23.9</v>
       </c>
       <c r="E1274">
-        <v>33.4</v>
+        <v>30.9</v>
       </c>
       <c r="F1274">
-        <v>17.600000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="G1274">
-        <v>59.1</v>
+        <v>98.2</v>
       </c>
       <c r="H1274">
         <v>0</v>
       </c>
       <c r="I1274">
-        <v>2.2999999999999998</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="1275" spans="1:9" x14ac:dyDescent="0.25">
@@ -37199,28 +37199,28 @@
         <v>9</v>
       </c>
       <c r="B1275" s="4">
-        <v>44623</v>
+        <v>44776</v>
       </c>
       <c r="C1275">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="D1275">
-        <v>21</v>
+        <v>22.6</v>
       </c>
       <c r="E1275">
-        <v>33.1</v>
+        <v>30.4</v>
       </c>
       <c r="F1275">
-        <v>22.4</v>
+        <v>68.7</v>
       </c>
       <c r="G1275">
-        <v>60.9</v>
+        <v>99.1</v>
       </c>
       <c r="H1275">
         <v>0</v>
       </c>
       <c r="I1275">
-        <v>1.7</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="1276" spans="1:9" x14ac:dyDescent="0.25">
@@ -37228,28 +37228,28 @@
         <v>9</v>
       </c>
       <c r="B1276" s="4">
-        <v>44624</v>
+        <v>44777</v>
       </c>
       <c r="C1276">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D1276">
-        <v>20.8</v>
+        <v>23.6</v>
       </c>
       <c r="E1276">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1276">
-        <v>23.6</v>
+        <v>65.2</v>
       </c>
       <c r="G1276">
-        <v>63.3</v>
+        <v>99.1</v>
       </c>
       <c r="H1276">
         <v>0</v>
       </c>
       <c r="I1276">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="1277" spans="1:9" x14ac:dyDescent="0.25">
@@ -37257,28 +37257,28 @@
         <v>9</v>
       </c>
       <c r="B1277" s="4">
-        <v>44625</v>
+        <v>44778</v>
       </c>
       <c r="C1277">
-        <v>0</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D1277">
-        <v>21.4</v>
+        <v>23.3</v>
       </c>
       <c r="E1277">
-        <v>33</v>
+        <v>31.7</v>
       </c>
       <c r="F1277">
-        <v>24.6</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="G1277">
-        <v>65.8</v>
+        <v>96.3</v>
       </c>
       <c r="H1277">
         <v>0</v>
       </c>
       <c r="I1277">
-        <v>3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="1278" spans="1:9" x14ac:dyDescent="0.25">
@@ -37286,28 +37286,28 @@
         <v>9</v>
       </c>
       <c r="B1278" s="4">
-        <v>44626</v>
+        <v>44779</v>
       </c>
       <c r="C1278">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="D1278">
-        <v>21.2</v>
+        <v>23.2</v>
       </c>
       <c r="E1278">
-        <v>33.299999999999997</v>
+        <v>31.5</v>
       </c>
       <c r="F1278">
-        <v>26.5</v>
+        <v>64.2</v>
       </c>
       <c r="G1278">
-        <v>71.599999999999994</v>
+        <v>98.6</v>
       </c>
       <c r="H1278">
         <v>0</v>
       </c>
       <c r="I1278">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="1279" spans="1:9" x14ac:dyDescent="0.25">
@@ -37315,28 +37315,28 @@
         <v>9</v>
       </c>
       <c r="B1279" s="4">
-        <v>44627</v>
+        <v>44780</v>
       </c>
       <c r="C1279">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="D1279">
         <v>22.1</v>
       </c>
       <c r="E1279">
-        <v>32.9</v>
+        <v>29.3</v>
       </c>
       <c r="F1279">
-        <v>36.799999999999997</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="G1279">
-        <v>70.5</v>
+        <v>98.2</v>
       </c>
       <c r="H1279">
         <v>0</v>
       </c>
       <c r="I1279">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="1280" spans="1:9" x14ac:dyDescent="0.25">
@@ -37344,28 +37344,28 @@
         <v>9</v>
       </c>
       <c r="B1280" s="4">
-        <v>44628</v>
+        <v>44781</v>
       </c>
       <c r="C1280">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="D1280">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="E1280">
-        <v>32.700000000000003</v>
+        <v>27</v>
       </c>
       <c r="F1280">
-        <v>33.4</v>
+        <v>79.5</v>
       </c>
       <c r="G1280">
-        <v>63.5</v>
+        <v>99.1</v>
       </c>
       <c r="H1280">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I1280">
-        <v>2.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1281" spans="1:9" x14ac:dyDescent="0.25">
@@ -37373,28 +37373,28 @@
         <v>9</v>
       </c>
       <c r="B1281" s="4">
-        <v>44629</v>
+        <v>44782</v>
       </c>
       <c r="C1281">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D1281">
-        <v>21.1</v>
+        <v>21.7</v>
       </c>
       <c r="E1281">
-        <v>33.200000000000003</v>
+        <v>24.6</v>
       </c>
       <c r="F1281">
-        <v>30.8</v>
+        <v>87.6</v>
       </c>
       <c r="G1281">
-        <v>68.099999999999994</v>
+        <v>98.2</v>
       </c>
       <c r="H1281">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I1281">
-        <v>2.2000000000000002</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="1282" spans="1:9" x14ac:dyDescent="0.25">
@@ -37402,28 +37402,28 @@
         <v>9</v>
       </c>
       <c r="B1282" s="4">
-        <v>44630</v>
+        <v>44783</v>
       </c>
       <c r="C1282">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D1282">
         <v>22.4</v>
       </c>
       <c r="E1282">
-        <v>34.1</v>
+        <v>26.7</v>
       </c>
       <c r="F1282">
-        <v>24.4</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="G1282">
-        <v>63.2</v>
+        <v>97.8</v>
       </c>
       <c r="H1282">
         <v>0</v>
       </c>
       <c r="I1282">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="1283" spans="1:9" x14ac:dyDescent="0.25">
@@ -37431,28 +37431,28 @@
         <v>9</v>
       </c>
       <c r="B1283" s="4">
-        <v>44631</v>
+        <v>44784</v>
       </c>
       <c r="C1283">
         <v>0</v>
       </c>
       <c r="D1283">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="E1283">
-        <v>33.299999999999997</v>
+        <v>28.7</v>
       </c>
       <c r="F1283">
-        <v>29.8</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="G1283">
-        <v>67.400000000000006</v>
+        <v>87.2</v>
       </c>
       <c r="H1283">
         <v>0</v>
       </c>
       <c r="I1283">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="1284" spans="1:9" x14ac:dyDescent="0.25">
@@ -37460,28 +37460,28 @@
         <v>9</v>
       </c>
       <c r="B1284" s="4">
-        <v>44632</v>
+        <v>44785</v>
       </c>
       <c r="C1284">
         <v>0</v>
       </c>
       <c r="D1284">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="E1284">
-        <v>33.799999999999997</v>
+        <v>28.9</v>
       </c>
       <c r="F1284">
-        <v>28.8</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="G1284">
-        <v>65.099999999999994</v>
+        <v>86.7</v>
       </c>
       <c r="H1284">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I1284">
-        <v>4.4000000000000004</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="1285" spans="1:9" x14ac:dyDescent="0.25">
@@ -37489,28 +37489,28 @@
         <v>9</v>
       </c>
       <c r="B1285" s="4">
-        <v>44633</v>
+        <v>44786</v>
       </c>
       <c r="C1285">
         <v>0</v>
       </c>
       <c r="D1285">
-        <v>22.5</v>
+        <v>22.9</v>
       </c>
       <c r="E1285">
-        <v>32.9</v>
+        <v>30.4</v>
       </c>
       <c r="F1285">
-        <v>32.5</v>
+        <v>63.5</v>
       </c>
       <c r="G1285">
-        <v>68.5</v>
+        <v>88.6</v>
       </c>
       <c r="H1285">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I1285">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="1286" spans="1:9" x14ac:dyDescent="0.25">
@@ -37518,28 +37518,28 @@
         <v>9</v>
       </c>
       <c r="B1286" s="4">
-        <v>44634</v>
+        <v>44787</v>
       </c>
       <c r="C1286">
         <v>0</v>
       </c>
       <c r="D1286">
-        <v>21.4</v>
+        <v>22.9</v>
       </c>
       <c r="E1286">
-        <v>34.299999999999997</v>
+        <v>28.5</v>
       </c>
       <c r="F1286">
-        <v>27.9</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="G1286">
-        <v>57.7</v>
+        <v>88.1</v>
       </c>
       <c r="H1286">
         <v>0</v>
       </c>
       <c r="I1286">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="1287" spans="1:9" x14ac:dyDescent="0.25">
@@ -37547,28 +37547,28 @@
         <v>9</v>
       </c>
       <c r="B1287" s="4">
-        <v>44635</v>
+        <v>44788</v>
       </c>
       <c r="C1287">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1287">
-        <v>20.3</v>
+        <v>21.6</v>
       </c>
       <c r="E1287">
-        <v>34.799999999999997</v>
+        <v>24.5</v>
       </c>
       <c r="F1287">
-        <v>14</v>
+        <v>82.4</v>
       </c>
       <c r="G1287">
-        <v>54.6</v>
+        <v>99.1</v>
       </c>
       <c r="H1287">
         <v>0</v>
       </c>
       <c r="I1287">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="1288" spans="1:9" x14ac:dyDescent="0.25">
@@ -37576,28 +37576,28 @@
         <v>9</v>
       </c>
       <c r="B1288" s="4">
-        <v>44636</v>
+        <v>44789</v>
       </c>
       <c r="C1288">
         <v>0</v>
       </c>
       <c r="D1288">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="E1288">
-        <v>35.700000000000003</v>
+        <v>26</v>
       </c>
       <c r="F1288">
-        <v>16.7</v>
+        <v>80.7</v>
       </c>
       <c r="G1288">
-        <v>51.8</v>
+        <v>97.8</v>
       </c>
       <c r="H1288">
         <v>0</v>
       </c>
       <c r="I1288">
-        <v>3.2</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="1289" spans="1:9" x14ac:dyDescent="0.25">
@@ -37605,28 +37605,28 @@
         <v>9</v>
       </c>
       <c r="B1289" s="4">
-        <v>44637</v>
+        <v>44790</v>
       </c>
       <c r="C1289">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D1289">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="E1289">
-        <v>36.9</v>
+        <v>31.7</v>
       </c>
       <c r="F1289">
-        <v>16.100000000000001</v>
+        <v>59.1</v>
       </c>
       <c r="G1289">
-        <v>51.3</v>
+        <v>95.3</v>
       </c>
       <c r="H1289">
         <v>0</v>
       </c>
       <c r="I1289">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="1290" spans="1:9" x14ac:dyDescent="0.25">
@@ -37634,28 +37634,28 @@
         <v>9</v>
       </c>
       <c r="B1290" s="4">
-        <v>44638</v>
+        <v>44791</v>
       </c>
       <c r="C1290">
         <v>0</v>
       </c>
       <c r="D1290">
-        <v>24.1</v>
+        <v>22.9</v>
       </c>
       <c r="E1290">
-        <v>37.799999999999997</v>
+        <v>31.9</v>
       </c>
       <c r="F1290">
-        <v>12.8</v>
+        <v>58</v>
       </c>
       <c r="G1290">
-        <v>47.4</v>
+        <v>89.8</v>
       </c>
       <c r="H1290">
         <v>0</v>
       </c>
       <c r="I1290">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="1291" spans="1:9" x14ac:dyDescent="0.25">
@@ -37663,28 +37663,28 @@
         <v>9</v>
       </c>
       <c r="B1291" s="4">
-        <v>44639</v>
+        <v>44792</v>
       </c>
       <c r="C1291">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D1291">
-        <v>22.4</v>
+        <v>23.5</v>
       </c>
       <c r="E1291">
-        <v>37.6</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="F1291">
-        <v>18.8</v>
+        <v>59.3</v>
       </c>
       <c r="G1291">
-        <v>82.4</v>
+        <v>94.6</v>
       </c>
       <c r="H1291">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I1291">
-        <v>2.2999999999999998</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="1292" spans="1:9" x14ac:dyDescent="0.25">
@@ -37692,28 +37692,28 @@
         <v>9</v>
       </c>
       <c r="B1292" s="4">
-        <v>44640</v>
+        <v>44793</v>
       </c>
       <c r="C1292">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="D1292">
-        <v>25.5</v>
+        <v>22.6</v>
       </c>
       <c r="E1292">
-        <v>35.200000000000003</v>
+        <v>31.6</v>
       </c>
       <c r="F1292">
-        <v>34.799999999999997</v>
+        <v>62</v>
       </c>
       <c r="G1292">
-        <v>72</v>
+        <v>99.6</v>
       </c>
       <c r="H1292">
         <v>0</v>
       </c>
       <c r="I1292">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="1293" spans="1:9" x14ac:dyDescent="0.25">
@@ -37721,28 +37721,28 @@
         <v>9</v>
       </c>
       <c r="B1293" s="4">
-        <v>44641</v>
+        <v>44794</v>
       </c>
       <c r="C1293">
         <v>0</v>
       </c>
       <c r="D1293">
-        <v>25</v>
+        <v>23.4</v>
       </c>
       <c r="E1293">
-        <v>35.799999999999997</v>
+        <v>31.5</v>
       </c>
       <c r="F1293">
-        <v>33.200000000000003</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="G1293">
-        <v>62</v>
+        <v>88.4</v>
       </c>
       <c r="H1293">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I1293">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="1294" spans="1:9" x14ac:dyDescent="0.25">
@@ -37750,28 +37750,28 @@
         <v>9</v>
       </c>
       <c r="B1294" s="4">
-        <v>44642</v>
+        <v>44795</v>
       </c>
       <c r="C1294">
         <v>0</v>
       </c>
       <c r="D1294">
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="E1294">
-        <v>35.9</v>
+        <v>31.3</v>
       </c>
       <c r="F1294">
-        <v>28.2</v>
+        <v>61.9</v>
       </c>
       <c r="G1294">
-        <v>88.4</v>
+        <v>87.7</v>
       </c>
       <c r="H1294">
         <v>0</v>
       </c>
       <c r="I1294">
-        <v>2.2999999999999998</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="1295" spans="1:9" x14ac:dyDescent="0.25">
@@ -37779,28 +37779,28 @@
         <v>9</v>
       </c>
       <c r="B1295" s="4">
-        <v>44643</v>
+        <v>44796</v>
       </c>
       <c r="C1295">
         <v>0</v>
       </c>
       <c r="D1295">
-        <v>24.8</v>
+        <v>22.3</v>
       </c>
       <c r="E1295">
-        <v>35.6</v>
+        <v>30.6</v>
       </c>
       <c r="F1295">
-        <v>33.9</v>
+        <v>63.1</v>
       </c>
       <c r="G1295">
-        <v>68.3</v>
+        <v>89</v>
       </c>
       <c r="H1295">
         <v>0</v>
       </c>
       <c r="I1295">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="1296" spans="1:9" x14ac:dyDescent="0.25">
@@ -37808,28 +37808,28 @@
         <v>9</v>
       </c>
       <c r="B1296" s="4">
-        <v>44644</v>
+        <v>44797</v>
       </c>
       <c r="C1296">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D1296">
-        <v>24.9</v>
+        <v>22.9</v>
       </c>
       <c r="E1296">
-        <v>36.6</v>
+        <v>32.5</v>
       </c>
       <c r="F1296">
-        <v>28.6</v>
+        <v>58</v>
       </c>
       <c r="G1296">
-        <v>86.7</v>
+        <v>90.8</v>
       </c>
       <c r="H1296">
         <v>0</v>
       </c>
       <c r="I1296">
-        <v>2</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="1297" spans="1:9" x14ac:dyDescent="0.25">
@@ -37837,28 +37837,28 @@
         <v>9</v>
       </c>
       <c r="B1297" s="4">
-        <v>44645</v>
+        <v>44798</v>
       </c>
       <c r="C1297">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D1297">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="E1297">
-        <v>36.799999999999997</v>
+        <v>32.6</v>
       </c>
       <c r="F1297">
-        <v>28.3</v>
+        <v>57</v>
       </c>
       <c r="G1297">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="H1297">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I1297">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="1298" spans="1:9" x14ac:dyDescent="0.25">
@@ -37866,28 +37866,28 @@
         <v>9</v>
       </c>
       <c r="B1298" s="4">
-        <v>44646</v>
+        <v>44799</v>
       </c>
       <c r="C1298">
         <v>0</v>
       </c>
       <c r="D1298">
-        <v>23.7</v>
+        <v>22.8</v>
       </c>
       <c r="E1298">
-        <v>36.299999999999997</v>
+        <v>31.6</v>
       </c>
       <c r="F1298">
-        <v>31.3</v>
+        <v>56.5</v>
       </c>
       <c r="G1298">
-        <v>86.3</v>
+        <v>94.4</v>
       </c>
       <c r="H1298">
         <v>0</v>
       </c>
       <c r="I1298">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="1299" spans="1:9" x14ac:dyDescent="0.25">
@@ -37895,28 +37895,28 @@
         <v>9</v>
       </c>
       <c r="B1299" s="4">
-        <v>44647</v>
+        <v>44800</v>
       </c>
       <c r="C1299">
         <v>0</v>
       </c>
       <c r="D1299">
-        <v>24.4</v>
+        <v>23.3</v>
       </c>
       <c r="E1299">
-        <v>37.5</v>
+        <v>32.5</v>
       </c>
       <c r="F1299">
-        <v>26.1</v>
+        <v>56.1</v>
       </c>
       <c r="G1299">
-        <v>81.3</v>
+        <v>88</v>
       </c>
       <c r="H1299">
         <v>0</v>
       </c>
       <c r="I1299">
-        <v>1.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1300" spans="1:9" x14ac:dyDescent="0.25">
@@ -37924,28 +37924,28 @@
         <v>9</v>
       </c>
       <c r="B1300" s="4">
-        <v>44648</v>
+        <v>44801</v>
       </c>
       <c r="C1300">
         <v>0</v>
       </c>
       <c r="D1300">
-        <v>24.4</v>
+        <v>23.4</v>
       </c>
       <c r="E1300">
-        <v>36.700000000000003</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="F1300">
-        <v>33.6</v>
+        <v>58.3</v>
       </c>
       <c r="G1300">
-        <v>78.2</v>
+        <v>92.5</v>
       </c>
       <c r="H1300">
         <v>0</v>
       </c>
       <c r="I1300">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="1301" spans="1:9" x14ac:dyDescent="0.25">
@@ -37953,28 +37953,28 @@
         <v>9</v>
       </c>
       <c r="B1301" s="4">
-        <v>44649</v>
+        <v>44802</v>
       </c>
       <c r="C1301">
         <v>0</v>
       </c>
       <c r="D1301">
-        <v>24.3</v>
+        <v>23.7</v>
       </c>
       <c r="E1301">
-        <v>37.6</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="F1301">
-        <v>26.6</v>
+        <v>56.5</v>
       </c>
       <c r="G1301">
-        <v>76.3</v>
+        <v>93.4</v>
       </c>
       <c r="H1301">
         <v>0</v>
       </c>
       <c r="I1301">
-        <v>1.1000000000000001</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="1302" spans="1:9" x14ac:dyDescent="0.25">
@@ -37982,28 +37982,28 @@
         <v>9</v>
       </c>
       <c r="B1302" s="4">
-        <v>44650</v>
+        <v>44803</v>
       </c>
       <c r="C1302">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="D1302">
-        <v>22.9</v>
+        <v>22</v>
       </c>
       <c r="E1302">
-        <v>38.200000000000003</v>
+        <v>31.4</v>
       </c>
       <c r="F1302">
-        <v>18.100000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="G1302">
-        <v>66.599999999999994</v>
+        <v>98.7</v>
       </c>
       <c r="H1302">
         <v>0</v>
       </c>
       <c r="I1302">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="1303" spans="1:9" x14ac:dyDescent="0.25">
@@ -38011,28 +38011,28 @@
         <v>9</v>
       </c>
       <c r="B1303" s="4">
-        <v>44651</v>
+        <v>44804</v>
       </c>
       <c r="C1303">
         <v>0</v>
       </c>
       <c r="D1303">
-        <v>24.7</v>
+        <v>23.9</v>
       </c>
       <c r="E1303">
-        <v>38.799999999999997</v>
+        <v>32.4</v>
       </c>
       <c r="F1303">
-        <v>13.9</v>
+        <v>56.5</v>
       </c>
       <c r="G1303">
-        <v>64.900000000000006</v>
+        <v>96.3</v>
       </c>
       <c r="H1303">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I1303">
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="1304" spans="1:9" x14ac:dyDescent="0.25">
@@ -38040,28 +38040,28 @@
         <v>9</v>
       </c>
       <c r="B1304" s="4">
-        <v>44652</v>
+        <v>44805</v>
       </c>
       <c r="C1304">
         <v>0</v>
       </c>
       <c r="D1304">
-        <v>23.7</v>
+        <v>24.5</v>
       </c>
       <c r="E1304">
-        <v>39</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="F1304">
-        <v>17.2</v>
+        <v>55.4</v>
       </c>
       <c r="G1304">
-        <v>89.2</v>
+        <v>89.8</v>
       </c>
       <c r="H1304">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I1304">
-        <v>2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="1305" spans="1:9" x14ac:dyDescent="0.25">
@@ -38069,28 +38069,28 @@
         <v>9</v>
       </c>
       <c r="B1305" s="4">
-        <v>44653</v>
+        <v>44806</v>
       </c>
       <c r="C1305">
         <v>0</v>
       </c>
       <c r="D1305">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="E1305">
-        <v>37.9</v>
+        <v>32.9</v>
       </c>
       <c r="F1305">
-        <v>29.1</v>
+        <v>53</v>
       </c>
       <c r="G1305">
-        <v>91</v>
+        <v>93.9</v>
       </c>
       <c r="H1305">
         <v>0</v>
       </c>
       <c r="I1305">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="1306" spans="1:9" x14ac:dyDescent="0.25">
@@ -38098,7 +38098,7 @@
         <v>9</v>
       </c>
       <c r="B1306" s="4">
-        <v>44654</v>
+        <v>44807</v>
       </c>
       <c r="C1306">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>24.1</v>
       </c>
       <c r="E1306">
-        <v>37.1</v>
+        <v>32.6</v>
       </c>
       <c r="F1306">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="G1306">
-        <v>88.5</v>
+        <v>93.9</v>
       </c>
       <c r="H1306">
         <v>0</v>
       </c>
       <c r="I1306">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="1307" spans="1:9" x14ac:dyDescent="0.25">
@@ -38127,28 +38127,28 @@
         <v>9</v>
       </c>
       <c r="B1307" s="4">
-        <v>44655</v>
+        <v>44808</v>
       </c>
       <c r="C1307">
         <v>0</v>
       </c>
       <c r="D1307">
-        <v>24.8</v>
+        <v>23.5</v>
       </c>
       <c r="E1307">
-        <v>37.700000000000003</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="F1307">
-        <v>32.700000000000003</v>
+        <v>53</v>
       </c>
       <c r="G1307">
-        <v>79.8</v>
+        <v>87.1</v>
       </c>
       <c r="H1307">
         <v>0</v>
       </c>
       <c r="I1307">
-        <v>2.2000000000000002</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="1308" spans="1:9" x14ac:dyDescent="0.25">
@@ -38156,28 +38156,28 @@
         <v>9</v>
       </c>
       <c r="B1308" s="4">
-        <v>44656</v>
+        <v>44809</v>
       </c>
       <c r="C1308">
         <v>0</v>
       </c>
       <c r="D1308">
-        <v>25.3</v>
+        <v>23.7</v>
       </c>
       <c r="E1308">
-        <v>37</v>
+        <v>30.9</v>
       </c>
       <c r="F1308">
-        <v>33.6</v>
+        <v>62</v>
       </c>
       <c r="G1308">
-        <v>75</v>
+        <v>97.2</v>
       </c>
       <c r="H1308">
         <v>0</v>
       </c>
       <c r="I1308">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="1309" spans="1:9" x14ac:dyDescent="0.25">
@@ -38185,28 +38185,28 @@
         <v>9</v>
       </c>
       <c r="B1309" s="4">
-        <v>44657</v>
+        <v>44810</v>
       </c>
       <c r="C1309">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="D1309">
-        <v>24.9</v>
+        <v>24</v>
       </c>
       <c r="E1309">
-        <v>36.700000000000003</v>
+        <v>32.9</v>
       </c>
       <c r="F1309">
-        <v>37.200000000000003</v>
+        <v>56.5</v>
       </c>
       <c r="G1309">
-        <v>77.900000000000006</v>
+        <v>99.6</v>
       </c>
       <c r="H1309">
         <v>0</v>
       </c>
       <c r="I1309">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="1310" spans="1:9" x14ac:dyDescent="0.25">
@@ -38214,28 +38214,28 @@
         <v>9</v>
       </c>
       <c r="B1310" s="4">
-        <v>44658</v>
+        <v>44811</v>
       </c>
       <c r="C1310">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="D1310">
-        <v>24.7</v>
+        <v>21.6</v>
       </c>
       <c r="E1310">
-        <v>37.200000000000003</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="F1310">
-        <v>31.6</v>
+        <v>56.5</v>
       </c>
       <c r="G1310">
-        <v>72.599999999999994</v>
+        <v>100</v>
       </c>
       <c r="H1310">
         <v>0</v>
       </c>
       <c r="I1310">
-        <v>2.2999999999999998</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="1311" spans="1:9" x14ac:dyDescent="0.25">
@@ -38243,28 +38243,28 @@
         <v>9</v>
       </c>
       <c r="B1311" s="4">
-        <v>44659</v>
+        <v>44812</v>
       </c>
       <c r="C1311">
-        <v>0</v>
+        <v>62.6</v>
       </c>
       <c r="D1311">
-        <v>25</v>
+        <v>21.4</v>
       </c>
       <c r="E1311">
-        <v>37.700000000000003</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="F1311">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="G1311">
-        <v>69.8</v>
+        <v>100</v>
       </c>
       <c r="H1311">
         <v>0</v>
       </c>
       <c r="I1311">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="1312" spans="1:9" x14ac:dyDescent="0.25">
@@ -38272,28 +38272,28 @@
         <v>9</v>
       </c>
       <c r="B1312" s="4">
-        <v>44660</v>
+        <v>44813</v>
       </c>
       <c r="C1312">
-        <v>0</v>
+        <v>47.7</v>
       </c>
       <c r="D1312">
-        <v>24.7</v>
+        <v>21.7</v>
       </c>
       <c r="E1312">
-        <v>36.5</v>
+        <v>29.4</v>
       </c>
       <c r="F1312">
-        <v>20.2</v>
+        <v>74</v>
       </c>
       <c r="G1312">
-        <v>84.5</v>
+        <v>100</v>
       </c>
       <c r="H1312">
         <v>0</v>
       </c>
       <c r="I1312">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="1313" spans="1:9" x14ac:dyDescent="0.25">
@@ -38301,28 +38301,28 @@
         <v>9</v>
       </c>
       <c r="B1313" s="4">
-        <v>44661</v>
+        <v>44814</v>
       </c>
       <c r="C1313">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D1313">
-        <v>25.1</v>
+        <v>22.6</v>
       </c>
       <c r="E1313">
-        <v>37</v>
+        <v>30.3</v>
       </c>
       <c r="F1313">
-        <v>28.2</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="G1313">
-        <v>82.1</v>
+        <v>100</v>
       </c>
       <c r="H1313">
         <v>0</v>
       </c>
       <c r="I1313">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="1314" spans="1:9" x14ac:dyDescent="0.25">
@@ -38330,28 +38330,28 @@
         <v>9</v>
       </c>
       <c r="B1314" s="4">
-        <v>44662</v>
+        <v>44815</v>
       </c>
       <c r="C1314">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D1314">
-        <v>25.8</v>
+        <v>22.1</v>
       </c>
       <c r="E1314">
-        <v>37.1</v>
+        <v>28.9</v>
       </c>
       <c r="F1314">
-        <v>34.1</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="G1314">
-        <v>73.2</v>
+        <v>100</v>
       </c>
       <c r="H1314">
         <v>0</v>
       </c>
       <c r="I1314">
-        <v>2.2000000000000002</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="1315" spans="1:9" x14ac:dyDescent="0.25">
@@ -38359,28 +38359,28 @@
         <v>9</v>
       </c>
       <c r="B1315" s="4">
-        <v>44663</v>
+        <v>44816</v>
       </c>
       <c r="C1315">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D1315">
-        <v>25.9</v>
+        <v>22.4</v>
       </c>
       <c r="E1315">
-        <v>37.4</v>
+        <v>24.4</v>
       </c>
       <c r="F1315">
-        <v>29.9</v>
+        <v>89.6</v>
       </c>
       <c r="G1315">
-        <v>78.599999999999994</v>
+        <v>100</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I1315">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="1316" spans="1:9" x14ac:dyDescent="0.25">
@@ -38388,28 +38388,28 @@
         <v>9</v>
       </c>
       <c r="B1316" s="4">
-        <v>44664</v>
+        <v>44817</v>
       </c>
       <c r="C1316">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="D1316">
-        <v>24.6</v>
+        <v>23</v>
       </c>
       <c r="E1316">
-        <v>38</v>
+        <v>28.1</v>
       </c>
       <c r="F1316">
-        <v>25.5</v>
+        <v>77.5</v>
       </c>
       <c r="G1316">
-        <v>79.5</v>
+        <v>97.8</v>
       </c>
       <c r="H1316">
         <v>0</v>
       </c>
       <c r="I1316">
-        <v>1.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="1317" spans="1:9" x14ac:dyDescent="0.25">
@@ -38417,28 +38417,28 @@
         <v>9</v>
       </c>
       <c r="B1317" s="4">
-        <v>44665</v>
+        <v>44818</v>
       </c>
       <c r="C1317">
         <v>0</v>
       </c>
       <c r="D1317">
-        <v>24.9</v>
+        <v>21.9</v>
       </c>
       <c r="E1317">
-        <v>36.4</v>
+        <v>28.2</v>
       </c>
       <c r="F1317">
-        <v>25.3</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="G1317">
-        <v>79.400000000000006</v>
+        <v>93.1</v>
       </c>
       <c r="H1317">
         <v>0</v>
       </c>
       <c r="I1317">
-        <v>1.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="1318" spans="1:9" x14ac:dyDescent="0.25">
@@ -38446,28 +38446,28 @@
         <v>9</v>
       </c>
       <c r="B1318" s="4">
-        <v>44666</v>
+        <v>44819</v>
       </c>
       <c r="C1318">
         <v>0</v>
       </c>
       <c r="D1318">
-        <v>28</v>
+        <v>22.1</v>
       </c>
       <c r="E1318">
-        <v>38.799999999999997</v>
+        <v>29.3</v>
       </c>
       <c r="F1318">
-        <v>24.5</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="G1318">
-        <v>67.2</v>
+        <v>92.6</v>
       </c>
       <c r="H1318">
         <v>0</v>
       </c>
       <c r="I1318">
-        <v>2.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="1319" spans="1:9" x14ac:dyDescent="0.25">
@@ -38475,28 +38475,28 @@
         <v>9</v>
       </c>
       <c r="B1319" s="4">
-        <v>44667</v>
+        <v>44820</v>
       </c>
       <c r="C1319">
         <v>0</v>
       </c>
       <c r="D1319">
-        <v>24.7</v>
+        <v>22.3</v>
       </c>
       <c r="E1319">
-        <v>36.6</v>
+        <v>29</v>
       </c>
       <c r="F1319">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="G1319">
-        <v>55.3</v>
+        <v>90.3</v>
       </c>
       <c r="H1319">
         <v>0</v>
       </c>
       <c r="I1319">
-        <v>1.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="1320" spans="1:9" x14ac:dyDescent="0.25">
@@ -38504,28 +38504,28 @@
         <v>9</v>
       </c>
       <c r="B1320" s="4">
-        <v>44668</v>
+        <v>44821</v>
       </c>
       <c r="C1320">
         <v>0</v>
       </c>
       <c r="D1320">
-        <v>26</v>
+        <v>21.9</v>
       </c>
       <c r="E1320">
-        <v>38.299999999999997</v>
+        <v>29.9</v>
       </c>
       <c r="F1320">
-        <v>24.9</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="G1320">
-        <v>56.7</v>
+        <v>93.1</v>
       </c>
       <c r="H1320">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I1320">
-        <v>1.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="1321" spans="1:9" x14ac:dyDescent="0.25">
@@ -38533,28 +38533,28 @@
         <v>9</v>
       </c>
       <c r="B1321" s="4">
-        <v>44669</v>
+        <v>44822</v>
       </c>
       <c r="C1321">
         <v>0</v>
       </c>
       <c r="D1321">
-        <v>26.5</v>
+        <v>21.8</v>
       </c>
       <c r="E1321">
-        <v>38.6</v>
+        <v>31.1</v>
       </c>
       <c r="F1321">
-        <v>25.7</v>
+        <v>64.5</v>
       </c>
       <c r="G1321">
-        <v>78.5</v>
+        <v>93.5</v>
       </c>
       <c r="H1321">
         <v>0</v>
       </c>
       <c r="I1321">
-        <v>2.2000000000000002</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="1322" spans="1:9" x14ac:dyDescent="0.25">
@@ -38562,28 +38562,28 @@
         <v>9</v>
       </c>
       <c r="B1322" s="4">
-        <v>44670</v>
+        <v>44823</v>
       </c>
       <c r="C1322">
         <v>0</v>
       </c>
       <c r="D1322">
-        <v>25.7</v>
+        <v>22.6</v>
       </c>
       <c r="E1322">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F1322">
-        <v>27.2</v>
+        <v>59.5</v>
       </c>
       <c r="G1322">
-        <v>78.3</v>
+        <v>88.1</v>
       </c>
       <c r="H1322">
         <v>0</v>
       </c>
       <c r="I1322">
-        <v>1.3</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="1323" spans="1:9" x14ac:dyDescent="0.25">
@@ -38591,28 +38591,28 @@
         <v>9</v>
       </c>
       <c r="B1323" s="4">
-        <v>44671</v>
+        <v>44824</v>
       </c>
       <c r="C1323">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D1323">
-        <v>27.4</v>
+        <v>22</v>
       </c>
       <c r="E1323">
-        <v>39.1</v>
+        <v>29.9</v>
       </c>
       <c r="F1323">
-        <v>23.7</v>
+        <v>67</v>
       </c>
       <c r="G1323">
-        <v>47.1</v>
+        <v>99.1</v>
       </c>
       <c r="H1323">
         <v>0</v>
       </c>
       <c r="I1323">
-        <v>1.9</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="1324" spans="1:9" x14ac:dyDescent="0.25">
@@ -38620,28 +38620,28 @@
         <v>9</v>
       </c>
       <c r="B1324" s="4">
-        <v>44672</v>
+        <v>44825</v>
       </c>
       <c r="C1324">
         <v>0</v>
       </c>
       <c r="D1324">
-        <v>26</v>
+        <v>22.1</v>
       </c>
       <c r="E1324">
-        <v>40.799999999999997</v>
+        <v>27.6</v>
       </c>
       <c r="F1324">
-        <v>18.7</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="G1324">
-        <v>80.400000000000006</v>
+        <v>94.9</v>
       </c>
       <c r="H1324">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I1324">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1325" spans="1:9" x14ac:dyDescent="0.25">
@@ -38649,28 +38649,28 @@
         <v>9</v>
       </c>
       <c r="B1325" s="4">
-        <v>44673</v>
+        <v>44826</v>
       </c>
       <c r="C1325">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="D1325">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="E1325">
-        <v>39.200000000000003</v>
+        <v>30.1</v>
       </c>
       <c r="F1325">
-        <v>26</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="G1325">
-        <v>82.7</v>
+        <v>98.2</v>
       </c>
       <c r="H1325">
         <v>0</v>
       </c>
       <c r="I1325">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1326" spans="1:9" x14ac:dyDescent="0.25">
@@ -38678,28 +38678,28 @@
         <v>9</v>
       </c>
       <c r="B1326" s="4">
-        <v>44674</v>
+        <v>44827</v>
       </c>
       <c r="C1326">
         <v>0</v>
       </c>
       <c r="D1326">
-        <v>24.8</v>
+        <v>21.9</v>
       </c>
       <c r="E1326">
-        <v>35.1</v>
+        <v>25.5</v>
       </c>
       <c r="F1326">
-        <v>37.1</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="G1326">
-        <v>79.5</v>
+        <v>97.3</v>
       </c>
       <c r="H1326">
         <v>0</v>
       </c>
       <c r="I1326">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="1327" spans="1:9" x14ac:dyDescent="0.25">
@@ -38707,28 +38707,28 @@
         <v>9</v>
       </c>
       <c r="B1327" s="4">
-        <v>44675</v>
+        <v>44828</v>
       </c>
       <c r="C1327">
         <v>0</v>
       </c>
       <c r="D1327">
-        <v>27</v>
+        <v>21.4</v>
       </c>
       <c r="E1327">
-        <v>37.700000000000003</v>
+        <v>31.4</v>
       </c>
       <c r="F1327">
-        <v>32.4</v>
+        <v>54.6</v>
       </c>
       <c r="G1327">
-        <v>69.099999999999994</v>
+        <v>95.9</v>
       </c>
       <c r="H1327">
         <v>0</v>
       </c>
       <c r="I1327">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="1328" spans="1:9" x14ac:dyDescent="0.25">
@@ -38736,28 +38736,28 @@
         <v>9</v>
       </c>
       <c r="B1328" s="4">
-        <v>44676</v>
+        <v>44829</v>
       </c>
       <c r="C1328">
         <v>0</v>
       </c>
       <c r="D1328">
-        <v>25.9</v>
+        <v>21.4</v>
       </c>
       <c r="E1328">
-        <v>37.299999999999997</v>
+        <v>32.4</v>
       </c>
       <c r="F1328">
-        <v>28.3</v>
+        <v>53</v>
       </c>
       <c r="G1328">
-        <v>60.9</v>
+        <v>97.3</v>
       </c>
       <c r="H1328">
         <v>0</v>
       </c>
       <c r="I1328">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1329" spans="1:9" x14ac:dyDescent="0.25">
@@ -38765,28 +38765,28 @@
         <v>9</v>
       </c>
       <c r="B1329" s="4">
-        <v>44677</v>
+        <v>44830</v>
       </c>
       <c r="C1329">
         <v>0</v>
       </c>
       <c r="D1329">
-        <v>28</v>
+        <v>21.9</v>
       </c>
       <c r="E1329">
-        <v>39.5</v>
+        <v>32.6</v>
       </c>
       <c r="F1329">
-        <v>23.3</v>
+        <v>56.4</v>
       </c>
       <c r="G1329">
-        <v>63.8</v>
+        <v>99.1</v>
       </c>
       <c r="H1329">
         <v>0</v>
       </c>
       <c r="I1329">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1330" spans="1:9" x14ac:dyDescent="0.25">
@@ -38794,28 +38794,28 @@
         <v>9</v>
       </c>
       <c r="B1330" s="4">
-        <v>44678</v>
+        <v>44831</v>
       </c>
       <c r="C1330">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="D1330">
-        <v>27</v>
+        <v>21.8</v>
       </c>
       <c r="E1330">
-        <v>39.4</v>
+        <v>32.9</v>
       </c>
       <c r="F1330">
-        <v>24.5</v>
+        <v>54</v>
       </c>
       <c r="G1330">
-        <v>62.1</v>
+        <v>100</v>
       </c>
       <c r="H1330">
         <v>0</v>
       </c>
       <c r="I1330">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="1331" spans="1:9" x14ac:dyDescent="0.25">
@@ -38823,28 +38823,28 @@
         <v>9</v>
       </c>
       <c r="B1331" s="4">
-        <v>44679</v>
+        <v>44832</v>
       </c>
       <c r="C1331">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="D1331">
-        <v>28.3</v>
+        <v>22.2</v>
       </c>
       <c r="E1331">
-        <v>39.5</v>
+        <v>32.9</v>
       </c>
       <c r="F1331">
-        <v>24.2</v>
+        <v>56.5</v>
       </c>
       <c r="G1331">
-        <v>59.8</v>
+        <v>100</v>
       </c>
       <c r="H1331">
         <v>0</v>
       </c>
       <c r="I1331">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1332" spans="1:9" x14ac:dyDescent="0.25">
@@ -38852,28 +38852,28 @@
         <v>9</v>
       </c>
       <c r="B1332" s="4">
-        <v>44680</v>
+        <v>44833</v>
       </c>
       <c r="C1332">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="D1332">
-        <v>26.1</v>
+        <v>22.8</v>
       </c>
       <c r="E1332">
-        <v>39.799999999999997</v>
+        <v>31.9</v>
       </c>
       <c r="F1332">
-        <v>25.2</v>
+        <v>59.5</v>
       </c>
       <c r="G1332">
-        <v>67.900000000000006</v>
+        <v>100</v>
       </c>
       <c r="H1332">
         <v>0</v>
       </c>
       <c r="I1332">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="1333" spans="1:9" x14ac:dyDescent="0.25">
@@ -38881,28 +38881,28 @@
         <v>9</v>
       </c>
       <c r="B1333" s="4">
-        <v>44681</v>
+        <v>44834</v>
       </c>
       <c r="C1333">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="D1333">
-        <v>27</v>
+        <v>22.1</v>
       </c>
       <c r="E1333">
-        <v>40.200000000000003</v>
+        <v>29.9</v>
       </c>
       <c r="F1333">
-        <v>20.9</v>
+        <v>71.5</v>
       </c>
       <c r="G1333">
-        <v>55.8</v>
+        <v>100</v>
       </c>
       <c r="H1333">
         <v>0</v>
       </c>
       <c r="I1333">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
